--- a/document/projet_vapo_game_food_78.xlsx
+++ b/document/projet_vapo_game_food_78.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LIONS_CLUB\BP\finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995E3A79-360E-4A06-81A8-B2B52FCDAABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6625AB-35D7-4C17-B610-10E25A96B1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estimation_working" sheetId="1" r:id="rId1"/>
@@ -967,46 +967,6 @@
   <dxfs count="90">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1096,6 +1056,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1116,6 +1077,76 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1132,6 +1163,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1261,36 +1293,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -4244,35 +4246,35 @@
     <tableColumn id="6" xr3:uid="{8A834A4F-3F25-4E1E-9D9E-8C973B61038D}" name="VAT_due" dataDxfId="24">
       <calculatedColumnFormula>E2-F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BD34FCBF-6048-4CE8-9540-4410BDA12B95}" name="total_charges" dataDxfId="23">
-      <calculatedColumnFormula>(SUM('charges'!$C$2:$C$36))*total_final[[#This Row],[%evolution]]</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{BD34FCBF-6048-4CE8-9540-4410BDA12B95}" name="total_charges" dataDxfId="12">
+      <calculatedColumnFormula>(SUM('charges'!$C$2:$C$36))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D25EAF48-BAED-4E66-9598-89DB42B86C7E}" name="salary" dataDxfId="22">
-      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final[[#Headers],[salary]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{D25EAF48-BAED-4E66-9598-89DB42B86C7E}" name="salary" dataDxfId="11">
+      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B3E4B1A6-BF76-4F51-ABF5-FCEF39DE676D}" name="rent" dataDxfId="21">
-      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final[[#Headers],[rent]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{B3E4B1A6-BF76-4F51-ABF5-FCEF39DE676D}" name="rent" dataDxfId="10">
+      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{EABF438C-289A-4537-9A89-D618D66BE776}" name="taxes" dataDxfId="20">
-      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final[[#Headers],[taxes]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{EABF438C-289A-4537-9A89-D618D66BE776}" name="taxes" dataDxfId="9">
+      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3DDE191A-E0E3-402B-ABEF-D9EC7BE5F738}" name="loan" dataDxfId="19">
-      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final[[#Headers],[loan]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{3DDE191A-E0E3-402B-ABEF-D9EC7BE5F738}" name="loan" dataDxfId="8">
+      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C818C5FE-B0C6-4C52-A9AE-896C1C41A581}" name="bank_charges" dataDxfId="18">
-      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final[[#Headers],[bank_charges]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{C818C5FE-B0C6-4C52-A9AE-896C1C41A581}" name="bank_charges" dataDxfId="7">
+      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F1D2494B-AA40-4E47-97B4-53F07477C905}" name="subscription" dataDxfId="17">
-      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subscription]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{F1D2494B-AA40-4E47-97B4-53F07477C905}" name="subscription" dataDxfId="6">
+      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F55C646E-051D-483F-B2CE-74AC11169FE7}" name="others" dataDxfId="16">
-      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final[[#Headers],[others]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{F55C646E-051D-483F-B2CE-74AC11169FE7}" name="others" dataDxfId="5">
+      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{708F79BD-11F2-4799-B46F-C1108F09EAA8}" name="stock" dataDxfId="15">
-      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final[[#Headers],[stock]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{708F79BD-11F2-4799-B46F-C1108F09EAA8}" name="stock" dataDxfId="4">
+      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{BB3586ED-5997-4855-8F04-73ACB85C934D}" name="subcontracting" dataDxfId="14">
-      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subcontracting]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{BB3586ED-5997-4855-8F04-73ACB85C934D}" name="subcontracting" dataDxfId="3">
+      <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4280,20 +4282,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F8320F3-0E23-4172-8766-241276694378}" name="cumulative_total" displayName="cumulative_total" ref="A1:E8" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F8320F3-0E23-4172-8766-241276694378}" name="cumulative_total" displayName="cumulative_total" ref="A1:E8" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:E8" xr:uid="{8F8320F3-0E23-4172-8766-241276694378}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B4A280B8-15DF-49A1-A706-F6A81D214BF1}" name="year" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F8567E1F-0DA6-4E6F-B145-C1116ECA5623}" name="sales_turnover" dataDxfId="7" dataCellStyle="Monétaire">
-      <calculatedColumnFormula>total_final[[#This Row],[sales_turnover]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{B4A280B8-15DF-49A1-A706-F6A81D214BF1}" name="year" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{F8567E1F-0DA6-4E6F-B145-C1116ECA5623}" name="sales_turnover" dataDxfId="2" dataCellStyle="Monétaire">
+      <calculatedColumnFormula>total_final!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5401368D-C8BA-4D27-A3F0-F965F6D11D88}" name="total_charges" dataDxfId="6" dataCellStyle="Monétaire">
-      <calculatedColumnFormula>total_final[[#This Row],[total_charges]]</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{5401368D-C8BA-4D27-A3F0-F965F6D11D88}" name="total_charges" dataDxfId="1" dataCellStyle="Monétaire">
+      <calculatedColumnFormula>total_final!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1F7694BA-C328-4E3D-A970-92857DBC397E}" name="difference" dataDxfId="5" dataCellStyle="Monétaire">
-      <calculatedColumnFormula>cumulative_total[[#This Row],[sales_turnover]]-cumulative_total[[#This Row],[total_charges]]</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{1F7694BA-C328-4E3D-A970-92857DBC397E}" name="difference" dataDxfId="0" dataCellStyle="Monétaire">
+      <calculatedColumnFormula>B2-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8D255A2-A3D0-4534-9DBE-33F4C9777D7A}" name="cumulative" dataDxfId="4" dataCellStyle="Monétaire">
+    <tableColumn id="5" xr3:uid="{C8D255A2-A3D0-4534-9DBE-33F4C9777D7A}" name="cumulative" dataDxfId="17" dataCellStyle="Monétaire">
       <calculatedColumnFormula>E1+D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6443,18 +6445,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K31">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S31 V3:V31">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6467,7 +6469,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6568,43 +6570,43 @@
         <v>87423.183241023682</v>
       </c>
       <c r="H2" s="2">
-        <f>(SUM('charges'!$C$2:$C$36))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUM('charges'!$C$2:$C$36))*C2</f>
         <v>915587.29303550266</v>
       </c>
       <c r="I2" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[salary]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C2</f>
         <v>328817</v>
       </c>
       <c r="J2" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[rent]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C2</f>
         <v>158668.68</v>
       </c>
       <c r="K2" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[taxes]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C2</f>
         <v>108412.25349698481</v>
       </c>
       <c r="L2" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[loan]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C2</f>
         <v>51778.32</v>
       </c>
       <c r="M2" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[bank_charges]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C2</f>
         <v>15413.407000000001</v>
       </c>
       <c r="N2" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subscription]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C2</f>
         <v>30430.474880000002</v>
       </c>
       <c r="O2" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[others]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C2</f>
         <v>18000</v>
       </c>
       <c r="P2" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[stock]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C2</f>
         <v>202067.15765851794</v>
       </c>
       <c r="Q2" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subcontracting]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C2</f>
         <v>2000</v>
       </c>
     </row>
@@ -6637,43 +6639,43 @@
         <v>91139.006934301011</v>
       </c>
       <c r="H3" s="2">
-        <f>(SUM('charges'!$C$2:$C$36))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUM('charges'!$C$2:$C$36))*C3</f>
         <v>954443.83090165386</v>
       </c>
       <c r="I3" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[salary]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C3</f>
         <v>342771.63907015888</v>
       </c>
       <c r="J3" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[rent]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C3</f>
         <v>165402.4077608473</v>
       </c>
       <c r="K3" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[taxes]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C3</f>
         <v>113013.15268508333</v>
       </c>
       <c r="L3" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[loan]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C3</f>
         <v>53975.736092413674</v>
       </c>
       <c r="M3" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[bank_charges]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C3</f>
         <v>16067.535380000001</v>
       </c>
       <c r="N3" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subscription]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C3</f>
         <v>31721.91143493462</v>
       </c>
       <c r="O3" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[others]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C3</f>
         <v>18763.90059900449</v>
       </c>
       <c r="P3" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[stock]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C3</f>
         <v>210642.67003487775</v>
       </c>
       <c r="Q3" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subcontracting]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C3</f>
         <v>2084.8778443338324</v>
       </c>
     </row>
@@ -6706,43 +6708,43 @@
         <v>95016.597357127597</v>
       </c>
       <c r="H4" s="2">
-        <f>(SUM('charges'!$C$2:$C$36))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUM('charges'!$C$2:$C$36))*C4</f>
         <v>954481.44912207767</v>
       </c>
       <c r="I4" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[salary]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C4</f>
         <v>342785.1489893978</v>
       </c>
       <c r="J4" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[rent]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C4</f>
         <v>165408.92689170901</v>
       </c>
       <c r="K4" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[taxes]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C4</f>
         <v>113017.60695840027</v>
       </c>
       <c r="L4" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[loan]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C4</f>
         <v>53977.86347914103</v>
       </c>
       <c r="M4" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[bank_charges]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C4</f>
         <v>16068.168661988972</v>
       </c>
       <c r="N4" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subscription]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C4</f>
         <v>31723.161714749931</v>
       </c>
       <c r="O4" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[others]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C4</f>
         <v>18764.640154886034</v>
       </c>
       <c r="P4" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[stock]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C4</f>
         <v>210650.97225459514</v>
       </c>
       <c r="Q4" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subcontracting]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C4</f>
         <v>2084.9600172095593</v>
       </c>
     </row>
@@ -6775,43 +6777,43 @@
         <v>99063.213205594526</v>
       </c>
       <c r="H5" s="2">
-        <f>(SUM('charges'!$C$2:$C$36))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUM('charges'!$C$2:$C$36))*C5</f>
         <v>954519.61006503168</v>
       </c>
       <c r="I5" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[salary]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C5</f>
         <v>342798.85381784482</v>
       </c>
       <c r="J5" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[rent]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C5</f>
         <v>165415.54007484525</v>
       </c>
       <c r="K5" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[taxes]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C5</f>
         <v>113022.12549404694</v>
       </c>
       <c r="L5" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[loan]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C5</f>
         <v>53980.021557929154</v>
       </c>
       <c r="M5" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[bank_charges]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C5</f>
         <v>16068.811080412346</v>
       </c>
       <c r="N5" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subscription]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C5</f>
         <v>31724.430032500506</v>
       </c>
       <c r="O5" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[others]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C5</f>
         <v>18765.390380428038</v>
       </c>
       <c r="P5" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[stock]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C5</f>
         <v>210659.39425142159</v>
       </c>
       <c r="Q5" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subcontracting]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C5</f>
         <v>2085.0433756031157</v>
       </c>
     </row>
@@ -6844,43 +6846,43 @@
         <v>103286.45080525102</v>
       </c>
       <c r="H6" s="2">
-        <f>(SUM('charges'!$C$2:$C$36))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUM('charges'!$C$2:$C$36))*C6</f>
         <v>954558.31848713825</v>
       </c>
       <c r="I6" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[salary]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C6</f>
         <v>342812.75526375679</v>
       </c>
       <c r="J6" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[rent]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C6</f>
         <v>165422.24813456525</v>
       </c>
       <c r="K6" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[taxes]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C6</f>
         <v>113026.70885524231</v>
       </c>
       <c r="L6" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[loan]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C6</f>
         <v>53982.210597774698</v>
       </c>
       <c r="M6" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[bank_charges]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C6</f>
         <v>16069.46271534524</v>
       </c>
       <c r="N6" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subscription]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C6</f>
         <v>31725.71654627753</v>
       </c>
       <c r="O6" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[others]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C6</f>
         <v>18766.15136914339</v>
       </c>
       <c r="P6" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[stock]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C6</f>
         <v>210667.93707512831</v>
       </c>
       <c r="Q6" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subcontracting]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C6</f>
         <v>2085.127929904821</v>
       </c>
     </row>
@@ -6913,43 +6915,43 @@
         <v>107694.26045317977</v>
       </c>
       <c r="H7" s="2">
-        <f>(SUM('charges'!$C$2:$C$36))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUM('charges'!$C$2:$C$36))*C7</f>
         <v>954597.57908099296</v>
       </c>
       <c r="I7" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[salary]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C7</f>
         <v>342826.85501239647</v>
       </c>
       <c r="J7" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[rent]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C7</f>
         <v>165429.05188408244</v>
       </c>
       <c r="K7" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[taxes]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C7</f>
         <v>113031.35759762416</v>
       </c>
       <c r="L7" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[loan]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C7</f>
         <v>53984.430864053465</v>
       </c>
       <c r="M7" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[bank_charges]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C7</f>
         <v>16070.123645784912</v>
       </c>
       <c r="N7" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subscription]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C7</f>
         <v>31727.021412044189</v>
       </c>
       <c r="O7" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[others]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C7</f>
         <v>18766.923213286227</v>
       </c>
       <c r="P7" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[stock]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C7</f>
         <v>210676.601761356</v>
       </c>
       <c r="Q7" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subcontracting]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C7</f>
         <v>2085.2136903651362</v>
       </c>
     </row>
@@ -6982,43 +6984,43 @@
         <v>112294.96358396878</v>
       </c>
       <c r="H8" s="2">
-        <f>(SUM('charges'!$C$2:$C$36))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUM('charges'!$C$2:$C$36))*C8</f>
         <v>954637.39647082484</v>
       </c>
       <c r="I8" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[salary]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C8</f>
         <v>342841.15472447412</v>
       </c>
       <c r="J8" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[rent]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C8</f>
         <v>165435.95212476261</v>
       </c>
       <c r="K8" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[taxes]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C8</f>
         <v>113036.07226873514</v>
       </c>
       <c r="L8" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[loan]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C8</f>
         <v>53986.682618275008</v>
       </c>
       <c r="M8" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[bank_charges]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C8</f>
         <v>16070.793949577708</v>
       </c>
       <c r="N8" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subscription]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C8</f>
         <v>31728.344783491437</v>
       </c>
       <c r="O8" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[others]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C8</f>
         <v>18767.706003766638</v>
       </c>
       <c r="P8" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[stock]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C8</f>
         <v>210685.38933065705</v>
       </c>
       <c r="Q8" s="2">
-        <f>(SUMIF('charges'!$A:$A,total_final[[#Headers],[subcontracting]],'charges'!$C:$C))*total_final[[#This Row],[%evolution]]</f>
+        <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C8</f>
         <v>2085.3006670851819</v>
       </c>
     </row>
@@ -7034,8 +7036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15517C16-0392-4D50-8389-3547429C0B1C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7068,15 +7070,15 @@
         <v>55</v>
       </c>
       <c r="B2" s="45">
-        <f>total_final[[#This Row],[sales_turnover]]</f>
+        <f>total_final!B2</f>
         <v>906671</v>
       </c>
       <c r="C2" s="45">
-        <f>total_final[[#This Row],[total_charges]]</f>
+        <f>total_final!H2</f>
         <v>915587.29303550266</v>
       </c>
       <c r="D2" s="45">
-        <f>cumulative_total[[#This Row],[sales_turnover]]-cumulative_total[[#This Row],[total_charges]]</f>
+        <f t="shared" ref="D2:D8" si="0">B2-C2</f>
         <v>-8916.293035502662</v>
       </c>
       <c r="E2" s="45">
@@ -7089,19 +7091,19 @@
         <v>56</v>
       </c>
       <c r="B3" s="46">
-        <f>total_final[[#This Row],[sales_turnover]]</f>
+        <f>total_final!B3</f>
         <v>945149.14</v>
       </c>
       <c r="C3" s="46">
-        <f>total_final[[#This Row],[total_charges]]</f>
+        <f>total_final!H3</f>
         <v>954443.83090165386</v>
       </c>
       <c r="D3" s="46">
-        <f>cumulative_total[[#This Row],[sales_turnover]]-cumulative_total[[#This Row],[total_charges]]</f>
+        <f t="shared" si="0"/>
         <v>-9294.6909016538411</v>
       </c>
       <c r="E3" s="46">
-        <f t="shared" ref="E3:E8" si="0">E2+D3</f>
+        <f t="shared" ref="E3:E8" si="1">E2+D3</f>
         <v>-18210.983937156503</v>
       </c>
     </row>
@@ -7110,19 +7112,19 @@
         <v>57</v>
       </c>
       <c r="B4" s="45">
-        <f>total_final[[#This Row],[sales_turnover]]</f>
+        <f>total_final!B4</f>
         <v>985299.08360000001</v>
       </c>
       <c r="C4" s="45">
-        <f>total_final[[#This Row],[total_charges]]</f>
+        <f>total_final!H4</f>
         <v>954481.44912207767</v>
       </c>
       <c r="D4" s="45">
-        <f>cumulative_total[[#This Row],[sales_turnover]]-cumulative_total[[#This Row],[total_charges]]</f>
+        <f t="shared" si="0"/>
         <v>30817.634477922344</v>
       </c>
       <c r="E4" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12606.650540765841</v>
       </c>
     </row>
@@ -7131,19 +7133,19 @@
         <v>58</v>
       </c>
       <c r="B5" s="46">
-        <f>total_final[[#This Row],[sales_turnover]]</f>
+        <f>total_final!B5</f>
         <v>1027195.6636240002</v>
       </c>
       <c r="C5" s="46">
-        <f>total_final[[#This Row],[total_charges]]</f>
+        <f>total_final!H5</f>
         <v>954519.61006503168</v>
       </c>
       <c r="D5" s="46">
-        <f>cumulative_total[[#This Row],[sales_turnover]]-cumulative_total[[#This Row],[total_charges]]</f>
+        <f t="shared" si="0"/>
         <v>72676.053558968473</v>
       </c>
       <c r="E5" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85282.704099734314</v>
       </c>
     </row>
@@ -7152,19 +7154,19 @@
         <v>59</v>
       </c>
       <c r="B6" s="45">
-        <f>total_final[[#This Row],[sales_turnover]]</f>
+        <f>total_final!B6</f>
         <v>1070917.1838497601</v>
       </c>
       <c r="C6" s="45">
-        <f>total_final[[#This Row],[total_charges]]</f>
+        <f>total_final!H6</f>
         <v>954558.31848713825</v>
       </c>
       <c r="D6" s="45">
-        <f>cumulative_total[[#This Row],[sales_turnover]]-cumulative_total[[#This Row],[total_charges]]</f>
+        <f t="shared" si="0"/>
         <v>116358.86536262184</v>
       </c>
       <c r="E6" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>201641.56946235616</v>
       </c>
     </row>
@@ -7173,19 +7175,19 @@
         <v>60</v>
       </c>
       <c r="B7" s="46">
-        <f>total_final[[#This Row],[sales_turnover]]</f>
+        <f>total_final!B7</f>
         <v>1116545.5865053986</v>
       </c>
       <c r="C7" s="46">
-        <f>total_final[[#This Row],[total_charges]]</f>
+        <f>total_final!H7</f>
         <v>954597.57908099296</v>
       </c>
       <c r="D7" s="46">
-        <f>cumulative_total[[#This Row],[sales_turnover]]-cumulative_total[[#This Row],[total_charges]]</f>
+        <f t="shared" si="0"/>
         <v>161948.00742440566</v>
       </c>
       <c r="E7" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>363589.57688676182</v>
       </c>
     </row>
@@ -7194,19 +7196,19 @@
         <v>61</v>
       </c>
       <c r="B8" s="47">
-        <f>total_final[[#This Row],[sales_turnover]]</f>
+        <f>total_final!B8</f>
         <v>1164166.6281853616</v>
       </c>
       <c r="C8" s="47">
-        <f>total_final[[#This Row],[total_charges]]</f>
+        <f>total_final!H8</f>
         <v>954637.39647082484</v>
       </c>
       <c r="D8" s="47">
-        <f>cumulative_total[[#This Row],[sales_turnover]]-cumulative_total[[#This Row],[total_charges]]</f>
+        <f t="shared" si="0"/>
         <v>209529.23171453679</v>
       </c>
       <c r="E8" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>573118.8086012986</v>
       </c>
     </row>
@@ -7222,7 +7224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8507FD-0EC9-47A0-BEF0-B56EA4771E80}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -9682,8 +9684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B34332A-5ACF-4335-B316-FE568B5CE012}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/document/projet_vapo_game_food_78.xlsx
+++ b/document/projet_vapo_game_food_78.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LIONS_CLUB\BP\finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6625AB-35D7-4C17-B610-10E25A96B1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55630CEF-F83F-4284-9AF0-42EEA8BFD7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estimation_working" sheetId="1" r:id="rId1"/>
@@ -641,12 +641,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;???\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,24 +668,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,20 +700,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -847,56 +820,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -945,26 +875,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
+  <cellStyles count="3">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="108">
+    <dxf>
+      <numFmt numFmtId="174" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -982,7 +979,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -990,13 +1010,15 @@
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1027,13 +1049,423 @@
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1057,20 +1489,249 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1078,33 +1739,129 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1147,79 +1904,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1238,175 +1922,6 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -4087,20 +4602,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF903CF4-1E7D-44E5-BEA7-B520E54648C6}" name="estimate_day_vape" displayName="estimate_day_vape" ref="A1:G6" totalsRowShown="0" headerRowDxfId="89" headerRowBorderDxfId="88" tableBorderDxfId="87" totalsRowBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF903CF4-1E7D-44E5-BEA7-B520E54648C6}" name="estimate_day_vape" displayName="estimate_day_vape" ref="A1:G6" totalsRowShown="0" headerRowDxfId="107" headerRowBorderDxfId="106" tableBorderDxfId="105" totalsRowBorderDxfId="104">
   <autoFilter ref="A1:G6" xr:uid="{DF903CF4-1E7D-44E5-BEA7-B520E54648C6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{23CFEFCF-6BE6-4B7C-AF52-8B826EC8B8D4}" name="day_phase" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{A008C58E-40A3-4426-8E6E-D25B6A6542FE}" name="nb_hours per_phase_currently" dataDxfId="84" dataCellStyle="Pourcentage"/>
-    <tableColumn id="3" xr3:uid="{10D8A708-EA2A-474A-A1B2-96F6B737E074}" name="nb_hours_per_phase_shortly" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{62674C9A-3F0E-453A-B30E-7470779849A0}" name="sales_in_euros_per_hours_currently" dataDxfId="82" dataCellStyle="Monétaire"/>
-    <tableColumn id="5" xr3:uid="{473C7E99-151D-4ABB-BC78-BBFBD411D21A}" name="sales_in_euros_per_hours_shortly" dataDxfId="81" dataCellStyle="Monétaire">
+    <tableColumn id="1" xr3:uid="{23CFEFCF-6BE6-4B7C-AF52-8B826EC8B8D4}" name="day_phase" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{A008C58E-40A3-4426-8E6E-D25B6A6542FE}" name="nb_hours per_phase_currently" dataDxfId="102" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{10D8A708-EA2A-474A-A1B2-96F6B737E074}" name="nb_hours_per_phase_shortly" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{62674C9A-3F0E-453A-B30E-7470779849A0}" name="sales_in_euros_per_hours_currently" dataDxfId="100" dataCellStyle="Monétaire"/>
+    <tableColumn id="5" xr3:uid="{473C7E99-151D-4ABB-BC78-BBFBD411D21A}" name="sales_in_euros_per_hours_shortly" dataDxfId="99" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(172500/351/15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{581BB6AE-99F8-475E-A250-7B05946FAF20}" name="total_sales_per_phase_currently" dataDxfId="80">
+    <tableColumn id="6" xr3:uid="{581BB6AE-99F8-475E-A250-7B05946FAF20}" name="total_sales_per_phase_currently" dataDxfId="98">
       <calculatedColumnFormula>B2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8325D864-2851-4EF5-B443-3906E0CE532F}" name="total_sales_per_phase_shortly" dataDxfId="79">
+    <tableColumn id="7" xr3:uid="{8325D864-2851-4EF5-B443-3906E0CE532F}" name="total_sales_per_phase_shortly" dataDxfId="97">
       <calculatedColumnFormula>C2*E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4109,18 +4624,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF861EAE-F634-4A6C-8B5A-E8E014EC37C7}" name="estimate_day_food" displayName="estimate_day_food" ref="A1:G6" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF861EAE-F634-4A6C-8B5A-E8E014EC37C7}" name="estimate_day_food" displayName="estimate_day_food" ref="A1:G6" totalsRowShown="0" headerRowDxfId="96" headerRowBorderDxfId="95" tableBorderDxfId="94" totalsRowBorderDxfId="93">
   <autoFilter ref="A1:G6" xr:uid="{CF861EAE-F634-4A6C-8B5A-E8E014EC37C7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9E020EF9-9A46-4E74-956C-E2FE5860F4B1}" name="day_phase" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{A3D2F7E5-B4BE-4D75-B225-5D33FDE6465D}" name="seating_capacity" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{6950911F-3B8A-4657-A345-383C756455F4}" name="capacity_rate_retained" dataDxfId="72" dataCellStyle="Pourcentage"/>
-    <tableColumn id="4" xr3:uid="{32330EDC-3FBD-4F88-8C35-5C47B490B1B2}" name="nb_hours_per_phase" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{8EB65EB0-272F-4E70-95AF-9FFA0F0BB2D3}" name="sales_in_euros_per_hours_per_place" dataDxfId="70" dataCellStyle="Monétaire"/>
-    <tableColumn id="6" xr3:uid="{5CDE070B-F4A4-45A6-904A-19FF3B985099}" name="total_sales_per_phase" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{9E020EF9-9A46-4E74-956C-E2FE5860F4B1}" name="day_phase" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{A3D2F7E5-B4BE-4D75-B225-5D33FDE6465D}" name="seating_capacity" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{6950911F-3B8A-4657-A345-383C756455F4}" name="capacity_rate_retained" dataDxfId="90" dataCellStyle="Pourcentage"/>
+    <tableColumn id="4" xr3:uid="{32330EDC-3FBD-4F88-8C35-5C47B490B1B2}" name="nb_hours_per_phase" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{8EB65EB0-272F-4E70-95AF-9FFA0F0BB2D3}" name="sales_in_euros_per_hours_per_place" dataDxfId="88" dataCellStyle="Monétaire"/>
+    <tableColumn id="6" xr3:uid="{5CDE070B-F4A4-45A6-904A-19FF3B985099}" name="total_sales_per_phase" dataDxfId="87">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A5570C01-187A-4898-B374-A8CBAA81543D}" name="total_sales_per_capacity_rate_retained" dataDxfId="68">
+    <tableColumn id="7" xr3:uid="{A5570C01-187A-4898-B374-A8CBAA81543D}" name="total_sales_per_capacity_rate_retained" dataDxfId="86">
       <calculatedColumnFormula>(B2*C2)*F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4129,18 +4644,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EC47570D-C5AF-46A2-A080-AAE2ACC7C482}" name="estimate_day_game" displayName="estimate_day_game" ref="A1:G6" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65" totalsRowBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EC47570D-C5AF-46A2-A080-AAE2ACC7C482}" name="estimate_day_game" displayName="estimate_day_game" ref="A1:G6" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83" totalsRowBorderDxfId="82">
   <autoFilter ref="A1:G6" xr:uid="{EC47570D-C5AF-46A2-A080-AAE2ACC7C482}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F9979B3E-ED40-4058-895A-CFD5E567B4A2}" name="day_phase" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{26003C65-77AC-4EA9-8B8F-4B4625D4BE47}" name="nb_hours per_phase_currently" dataDxfId="62" dataCellStyle="Pourcentage"/>
-    <tableColumn id="3" xr3:uid="{412D42C2-2030-4AF0-800A-46BAF32E7E5A}" name="nb_hours_per_phase_shortly" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{F658F7BD-470C-40E7-9900-4AD36D1A82CF}" name="sales_in_euros_per_hours_currently" dataDxfId="60" dataCellStyle="Monétaire"/>
-    <tableColumn id="5" xr3:uid="{F2A2913C-9CA1-44E8-9E8C-8410C68227F1}" name="sales_in_euros_per_hours_shortly" dataDxfId="59" dataCellStyle="Monétaire"/>
-    <tableColumn id="6" xr3:uid="{0179E88F-CB83-4691-8A01-7F7BACBBDF79}" name="total_sales_per_phase_currently" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{F9979B3E-ED40-4058-895A-CFD5E567B4A2}" name="day_phase" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{26003C65-77AC-4EA9-8B8F-4B4625D4BE47}" name="nb_hours per_phase_currently" dataDxfId="80" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{412D42C2-2030-4AF0-800A-46BAF32E7E5A}" name="nb_hours_per_phase_shortly" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{F658F7BD-470C-40E7-9900-4AD36D1A82CF}" name="sales_in_euros_per_hours_currently" dataDxfId="78" dataCellStyle="Monétaire"/>
+    <tableColumn id="5" xr3:uid="{F2A2913C-9CA1-44E8-9E8C-8410C68227F1}" name="sales_in_euros_per_hours_shortly" dataDxfId="77" dataCellStyle="Monétaire"/>
+    <tableColumn id="6" xr3:uid="{0179E88F-CB83-4691-8A01-7F7BACBBDF79}" name="total_sales_per_phase_currently" dataDxfId="76">
       <calculatedColumnFormula>B2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A0C54FCE-F803-44D6-897C-55CF71E5FA81}" name="total_sales_per_phase_shortly" dataDxfId="57">
+    <tableColumn id="7" xr3:uid="{A0C54FCE-F803-44D6-897C-55CF71E5FA81}" name="total_sales_per_phase_shortly" dataDxfId="75">
       <calculatedColumnFormula>C2*E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4149,18 +4664,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1915052A-D639-452C-92DE-66F4A35F97CC}" name="estimate_day_ticket" displayName="estimate_day_ticket" ref="A1:G6" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1915052A-D639-452C-92DE-66F4A35F97CC}" name="estimate_day_ticket" displayName="estimate_day_ticket" ref="A1:G6" totalsRowShown="0" headerRowDxfId="74" headerRowBorderDxfId="73" tableBorderDxfId="72">
   <autoFilter ref="A1:G6" xr:uid="{1915052A-D639-452C-92DE-66F4A35F97CC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B0676726-1D7A-4B8D-9C84-E85D3F233AC1}" name="day_phase" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{31E600A1-59D3-4D09-81F7-376E7CFAA59A}" name="seating_capacity" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{AF746BCA-532B-4E6B-86A2-D7FF444B6C58}" name="capacity_rate_retained" dataDxfId="51" dataCellStyle="Pourcentage"/>
-    <tableColumn id="4" xr3:uid="{7322EAE4-C101-4B42-AD47-C32D440A0BB2}" name="nb_hours_per_phase" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{58E36432-F1E0-433B-B68F-CD6DAF964B2E}" name="sales_in_euros_per_hours_per_place" dataDxfId="49" dataCellStyle="Monétaire"/>
-    <tableColumn id="6" xr3:uid="{413BB02B-2EDE-4F4B-8ECD-9E4586BB48D3}" name="total_sales_per_phase" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{B0676726-1D7A-4B8D-9C84-E85D3F233AC1}" name="day_phase" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{31E600A1-59D3-4D09-81F7-376E7CFAA59A}" name="seating_capacity" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{AF746BCA-532B-4E6B-86A2-D7FF444B6C58}" name="capacity_rate_retained" dataDxfId="69" dataCellStyle="Pourcentage"/>
+    <tableColumn id="4" xr3:uid="{7322EAE4-C101-4B42-AD47-C32D440A0BB2}" name="nb_hours_per_phase" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{58E36432-F1E0-433B-B68F-CD6DAF964B2E}" name="sales_in_euros_per_hours_per_place" dataDxfId="67" dataCellStyle="Monétaire"/>
+    <tableColumn id="6" xr3:uid="{413BB02B-2EDE-4F4B-8ECD-9E4586BB48D3}" name="total_sales_per_phase" dataDxfId="66">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8A4248DD-3673-4C3F-9B56-7F25D196B0BD}" name="total_sales_per_capacity_rate_retained" dataDxfId="47">
+    <tableColumn id="7" xr3:uid="{8A4248DD-3673-4C3F-9B56-7F25D196B0BD}" name="total_sales_per_capacity_rate_retained" dataDxfId="65">
       <calculatedColumnFormula>(B2*C2)*F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4169,15 +4684,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{134F9266-D15C-4DCC-885E-4407EDED84CA}" name="total_estimate" displayName="total_estimate" ref="A1:F11" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{134F9266-D15C-4DCC-885E-4407EDED84CA}" name="total_estimate" displayName="total_estimate" ref="A1:F11" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
   <autoFilter ref="A1:F11" xr:uid="{134F9266-D15C-4DCC-885E-4407EDED84CA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F228A9EC-5D2E-4E65-8F54-45939599B38D}" name="activities" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{295FCA9E-2192-44F6-A53C-D0B20B5A26E9}" name="type" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{F03D4147-79A9-4310-AE67-70606A60207A}" name="coefficient" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{8FD31160-9710-41FB-B939-5ECD9A386CF7}" name="estimate_day" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{7699E093-9E19-4BFE-A87B-7770CCB0B2DC}" name="nb_of_day_open_per_year" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{B7719EC4-6026-409D-8E28-DD73557EFC25}" name="total_sales_per_year" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{F228A9EC-5D2E-4E65-8F54-45939599B38D}" name="activities" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{295FCA9E-2192-44F6-A53C-D0B20B5A26E9}" name="type" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{F03D4147-79A9-4310-AE67-70606A60207A}" name="coefficient" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{8FD31160-9710-41FB-B939-5ECD9A386CF7}" name="estimate_day" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{7699E093-9E19-4BFE-A87B-7770CCB0B2DC}" name="nb_of_day_open_per_year" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{B7719EC4-6026-409D-8E28-DD73557EFC25}" name="total_sales_per_year" dataDxfId="55">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4186,94 +4701,94 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EB1B3AB0-047B-41A3-BD0B-7E11DAE57027}" name="margin_vat" displayName="margin_vat" ref="A1:K29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EB1B3AB0-047B-41A3-BD0B-7E11DAE57027}" name="margin_vat" displayName="margin_vat" ref="A1:K29" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="47" tableBorderDxfId="48">
   <autoFilter ref="A1:K29" xr:uid="{EB1B3AB0-047B-41A3-BD0B-7E11DAE57027}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{EAABBBE8-E6BA-4E7C-908F-1A423A219B01}" name="activity"/>
-    <tableColumn id="2" xr3:uid="{07A92056-AC04-45A8-A170-EAA965A32D79}" name="year"/>
-    <tableColumn id="3" xr3:uid="{0DB18EA5-66F0-44AE-A23C-690CB148C9A9}" name="sales_turnover" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{851CD4F0-2E43-479A-9E6C-3793A6E636B7}" name="sales_monthly" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{EAABBBE8-E6BA-4E7C-908F-1A423A219B01}" name="activity" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{07A92056-AC04-45A8-A170-EAA965A32D79}" name="year" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{0DB18EA5-66F0-44AE-A23C-690CB148C9A9}" name="sales_turnover" dataDxfId="44" dataCellStyle="Monétaire"/>
+    <tableColumn id="10" xr3:uid="{851CD4F0-2E43-479A-9E6C-3793A6E636B7}" name="sales_monthly" dataDxfId="43">
       <calculatedColumnFormula>margin_vat[[#This Row],[sales_turnover]]/12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CDF83351-B83A-4212-8F45-B38416923108}" name="evolution_coefficient"/>
-    <tableColumn id="5" xr3:uid="{0820C3BC-7CAC-4FA7-9B5D-79A9957E9C49}" name="margin_distribution"/>
-    <tableColumn id="6" xr3:uid="{820CB558-D68F-4C4D-8365-923F8DA14DA0}" name="average_margin"/>
-    <tableColumn id="7" xr3:uid="{0233BCA9-26BE-44A4-9FEC-19B5963583D8}" name="purchase" dataDxfId="34" dataCellStyle="Monétaire"/>
-    <tableColumn id="11" xr3:uid="{BD892F2E-9834-48AA-8A44-36FA74E3EACE}" name="purchase_monthly" dataDxfId="33" dataCellStyle="Monétaire">
+    <tableColumn id="4" xr3:uid="{CDF83351-B83A-4212-8F45-B38416923108}" name="evolution_coefficient" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{0820C3BC-7CAC-4FA7-9B5D-79A9957E9C49}" name="margin_distribution" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{820CB558-D68F-4C4D-8365-923F8DA14DA0}" name="average_margin" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{0233BCA9-26BE-44A4-9FEC-19B5963583D8}" name="purchase" dataDxfId="39" dataCellStyle="Monétaire"/>
+    <tableColumn id="11" xr3:uid="{BD892F2E-9834-48AA-8A44-36FA74E3EACE}" name="purchase_monthly" dataDxfId="38" dataCellStyle="Monétaire">
       <calculatedColumnFormula>margin_vat[[#This Row],[purchase]]/12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F0832A6B-BDB9-4225-B8BE-2421616EAAD9}" name="VAT_sold" dataDxfId="32">
+    <tableColumn id="8" xr3:uid="{F0832A6B-BDB9-4225-B8BE-2421616EAAD9}" name="VAT_sold" dataDxfId="37" dataCellStyle="Monétaire">
       <calculatedColumnFormula>C2*0.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9F748B71-352D-464C-83B7-515C6043F473}" name="VAT_purchased" dataDxfId="31" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" xr3:uid="{9F748B71-352D-464C-83B7-515C6043F473}" name="VAT_purchased" dataDxfId="36" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CB1CC60E-43F5-4396-ADDE-1495AE9669DF}" name="charges" displayName="charges" ref="A1:E35" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CB1CC60E-43F5-4396-ADDE-1495AE9669DF}" name="charges" displayName="charges" ref="A1:E35" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="33" tableBorderDxfId="34">
   <autoFilter ref="A1:E35" xr:uid="{CB1CC60E-43F5-4396-ADDE-1495AE9669DF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{670E7DD9-C962-408C-B0FB-A13B66AC177D}" name="type"/>
-    <tableColumn id="2" xr3:uid="{A6894200-F3FA-4EF7-96F2-F41A6C927546}" name="designation"/>
+    <tableColumn id="1" xr3:uid="{670E7DD9-C962-408C-B0FB-A13B66AC177D}" name="type" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{A6894200-F3FA-4EF7-96F2-F41A6C927546}" name="designation" dataDxfId="31"/>
     <tableColumn id="3" xr3:uid="{58799E1D-5191-4FA7-B664-B02DA5C51DDB}" name="charges_annual" dataDxfId="30" dataCellStyle="Monétaire"/>
     <tableColumn id="4" xr3:uid="{EE3A998E-4A87-4745-AF00-6B894BEE34C9}" name="charges_monthly" dataDxfId="29" dataCellStyle="Monétaire"/>
-    <tableColumn id="5" xr3:uid="{41A062A4-E677-4946-B612-688A94C015A2}" name="complement"/>
+    <tableColumn id="5" xr3:uid="{41A062A4-E677-4946-B612-688A94C015A2}" name="complement" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3FA0E667-10EC-418B-995F-26749BB2FB39}" name="total_final" displayName="total_final" ref="A1:Q8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3FA0E667-10EC-418B-995F-26749BB2FB39}" name="total_final" displayName="total_final" ref="A1:Q8" totalsRowShown="0" headerRowBorderDxfId="25" tableBorderDxfId="26" headerRowCellStyle="Monétaire" dataCellStyle="Monétaire">
   <autoFilter ref="A1:Q8" xr:uid="{3FA0E667-10EC-418B-995F-26749BB2FB39}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{E0F584D5-C5F3-4239-86C3-7F81D5629334}" name="year"/>
-    <tableColumn id="2" xr3:uid="{333087C4-D469-464A-B5FE-6CEDEAF62FE5}" name="sales_turnover" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{E0F584D5-C5F3-4239-86C3-7F81D5629334}" name="year" dataDxfId="24" dataCellStyle="Monétaire"/>
+    <tableColumn id="2" xr3:uid="{333087C4-D469-464A-B5FE-6CEDEAF62FE5}" name="sales_turnover" dataDxfId="2" dataCellStyle="Monétaire">
       <calculatedColumnFormula>margin_vat!C2+margin_vat!C9+margin_vat!C16+margin_vat!C23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{7C1343D3-616C-443C-B18D-9AE7F870E3D9}" name="%evolution" dataCellStyle="Pourcentage"/>
-    <tableColumn id="3" xr3:uid="{ABDD4C6A-D06B-48E8-B65D-136D743DA3F8}" name="purchase" dataDxfId="27">
+    <tableColumn id="16" xr3:uid="{7C1343D3-616C-443C-B18D-9AE7F870E3D9}" name="%evolution" dataDxfId="0" dataCellStyle="Monétaire"/>
+    <tableColumn id="3" xr3:uid="{ABDD4C6A-D06B-48E8-B65D-136D743DA3F8}" name="purchase" dataDxfId="1" dataCellStyle="Monétaire">
       <calculatedColumnFormula>margin_vat!H2+margin_vat!H9+margin_vat!H16+margin_vat!H23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{59660459-FAD2-4B37-868A-29937DE70CDA}" name="VAT_sold" dataDxfId="26">
+    <tableColumn id="4" xr3:uid="{59660459-FAD2-4B37-868A-29937DE70CDA}" name="VAT_sold" dataDxfId="23" dataCellStyle="Monétaire">
       <calculatedColumnFormula>margin_vat!J2+margin_vat!J9+margin_vat!J16+margin_vat!J23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0560E593-B5AC-4931-99FC-3F50F22038AC}" name="VAT_purchased" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{0560E593-B5AC-4931-99FC-3F50F22038AC}" name="VAT_purchased" dataDxfId="22" dataCellStyle="Monétaire">
       <calculatedColumnFormula>margin_vat!K2+margin_vat!K9+margin_vat!K16+margin_vat!K23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8A834A4F-3F25-4E1E-9D9E-8C973B61038D}" name="VAT_due" dataDxfId="24">
+    <tableColumn id="6" xr3:uid="{8A834A4F-3F25-4E1E-9D9E-8C973B61038D}" name="VAT_due" dataDxfId="21" dataCellStyle="Monétaire">
       <calculatedColumnFormula>E2-F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BD34FCBF-6048-4CE8-9540-4410BDA12B95}" name="total_charges" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{BD34FCBF-6048-4CE8-9540-4410BDA12B95}" name="total_charges" dataDxfId="20" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUM('charges'!$C$2:$C$36))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D25EAF48-BAED-4E66-9598-89DB42B86C7E}" name="salary" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{D25EAF48-BAED-4E66-9598-89DB42B86C7E}" name="salary" dataDxfId="19" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B3E4B1A6-BF76-4F51-ABF5-FCEF39DE676D}" name="rent" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{B3E4B1A6-BF76-4F51-ABF5-FCEF39DE676D}" name="rent" dataDxfId="18" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{EABF438C-289A-4537-9A89-D618D66BE776}" name="taxes" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{EABF438C-289A-4537-9A89-D618D66BE776}" name="taxes" dataDxfId="17" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3DDE191A-E0E3-402B-ABEF-D9EC7BE5F738}" name="loan" dataDxfId="8">
+    <tableColumn id="11" xr3:uid="{3DDE191A-E0E3-402B-ABEF-D9EC7BE5F738}" name="loan" dataDxfId="16" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C818C5FE-B0C6-4C52-A9AE-896C1C41A581}" name="bank_charges" dataDxfId="7">
+    <tableColumn id="12" xr3:uid="{C818C5FE-B0C6-4C52-A9AE-896C1C41A581}" name="bank_charges" dataDxfId="15" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F1D2494B-AA40-4E47-97B4-53F07477C905}" name="subscription" dataDxfId="6">
+    <tableColumn id="13" xr3:uid="{F1D2494B-AA40-4E47-97B4-53F07477C905}" name="subscription" dataDxfId="14" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F55C646E-051D-483F-B2CE-74AC11169FE7}" name="others" dataDxfId="5">
+    <tableColumn id="14" xr3:uid="{F55C646E-051D-483F-B2CE-74AC11169FE7}" name="others" dataDxfId="13" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{708F79BD-11F2-4799-B46F-C1108F09EAA8}" name="stock" dataDxfId="4">
+    <tableColumn id="15" xr3:uid="{708F79BD-11F2-4799-B46F-C1108F09EAA8}" name="stock" dataDxfId="12" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{BB3586ED-5997-4855-8F04-73ACB85C934D}" name="subcontracting" dataDxfId="3">
+    <tableColumn id="17" xr3:uid="{BB3586ED-5997-4855-8F04-73ACB85C934D}" name="subcontracting" dataDxfId="11" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4282,20 +4797,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F8320F3-0E23-4172-8766-241276694378}" name="cumulative_total" displayName="cumulative_total" ref="A1:E8" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F8320F3-0E23-4172-8766-241276694378}" name="cumulative_total" displayName="cumulative_total" ref="A1:E8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4" headerRowBorderDxfId="10" tableBorderDxfId="54" totalsRowBorderDxfId="53" dataCellStyle="Monétaire">
   <autoFilter ref="A1:E8" xr:uid="{8F8320F3-0E23-4172-8766-241276694378}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B4A280B8-15DF-49A1-A706-F6A81D214BF1}" name="year" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{F8567E1F-0DA6-4E6F-B145-C1116ECA5623}" name="sales_turnover" dataDxfId="2" dataCellStyle="Monétaire">
+    <tableColumn id="1" xr3:uid="{B4A280B8-15DF-49A1-A706-F6A81D214BF1}" name="year" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F8567E1F-0DA6-4E6F-B145-C1116ECA5623}" name="sales_turnover" dataDxfId="8" dataCellStyle="Monétaire">
       <calculatedColumnFormula>total_final!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5401368D-C8BA-4D27-A3F0-F965F6D11D88}" name="total_charges" dataDxfId="1" dataCellStyle="Monétaire">
+    <tableColumn id="3" xr3:uid="{5401368D-C8BA-4D27-A3F0-F965F6D11D88}" name="total_charges" dataDxfId="7" dataCellStyle="Monétaire">
       <calculatedColumnFormula>total_final!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1F7694BA-C328-4E3D-A970-92857DBC397E}" name="difference" dataDxfId="0" dataCellStyle="Monétaire">
+    <tableColumn id="4" xr3:uid="{1F7694BA-C328-4E3D-A970-92857DBC397E}" name="difference" dataDxfId="6" dataCellStyle="Monétaire">
       <calculatedColumnFormula>B2-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8D255A2-A3D0-4534-9DBE-33F4C9777D7A}" name="cumulative" dataDxfId="17" dataCellStyle="Monétaire">
+    <tableColumn id="5" xr3:uid="{C8D255A2-A3D0-4534-9DBE-33F4C9777D7A}" name="cumulative" dataDxfId="5" dataCellStyle="Monétaire">
       <calculatedColumnFormula>E1+D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6445,18 +6960,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K31">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S31 V3:V31">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6469,7 +6984,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6489,537 +7004,537 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="50" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="18">
         <f>margin_vat!C2+margin_vat!C9+margin_vat!C16+margin_vat!C23</f>
         <v>906671</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="53">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="18">
         <f>margin_vat!H2+margin_vat!H9+margin_vat!H16+margin_vat!H23</f>
         <v>202067.15765851794</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="46">
         <f>margin_vat!J2+margin_vat!J9+margin_vat!J16+margin_vat!J23</f>
         <v>116399.2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="51">
         <f>margin_vat!K2+margin_vat!K9+margin_vat!K16+margin_vat!K23</f>
         <v>28976.016758976315</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="18">
         <f t="shared" ref="G2:G8" si="0">E2-F2</f>
         <v>87423.183241023682</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="18">
         <f>(SUM('charges'!$C$2:$C$36))*C2</f>
         <v>915587.29303550266</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C2</f>
         <v>328817</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C2</f>
         <v>158668.68</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="51">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C2</f>
         <v>108412.25349698481</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C2</f>
         <v>51778.32</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C2</f>
         <v>15413.407000000001</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C2</f>
         <v>30430.474880000002</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C2</f>
         <v>18000</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="51">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C2</f>
         <v>202067.15765851794</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C2</f>
         <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="18">
         <f>margin_vat!C3+margin_vat!C10+margin_vat!C17+margin_vat!C24</f>
         <v>945149.14</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="53">
         <f>total_final[[#This Row],[sales_turnover]]/B2</f>
         <v>1.0424389221669161</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="18">
         <f>margin_vat!H3+margin_vat!H10+margin_vat!H17+margin_vat!H24</f>
         <v>211266.66214667686</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="46">
         <f>margin_vat!J3+margin_vat!J10+margin_vat!J17+margin_vat!J24</f>
         <v>121497.42800000001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="51">
         <f>margin_vat!K3+margin_vat!K10+margin_vat!K17+margin_vat!K24</f>
         <v>30358.421065699007</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="18">
         <f t="shared" si="0"/>
         <v>91139.006934301011</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="18">
         <f>(SUM('charges'!$C$2:$C$36))*C3</f>
         <v>954443.83090165386</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C3</f>
         <v>342771.63907015888</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C3</f>
         <v>165402.4077608473</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="51">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C3</f>
         <v>113013.15268508333</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C3</f>
         <v>53975.736092413674</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C3</f>
         <v>16067.535380000001</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C3</f>
         <v>31721.91143493462</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C3</f>
         <v>18763.90059900449</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="51">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C3</f>
         <v>210642.67003487775</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C3</f>
         <v>2084.8778443338324</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="18">
         <f>margin_vat!C4+margin_vat!C11+margin_vat!C18+margin_vat!C25</f>
         <v>985299.08360000001</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="53">
         <f>total_final[[#This Row],[sales_turnover]]/B3</f>
         <v>1.0424800086047796</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="18">
         <f>margin_vat!H4+margin_vat!H11+margin_vat!H18+margin_vat!H25</f>
         <v>220901.15590527124</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="46">
         <f>margin_vat!J4+margin_vat!J11+margin_vat!J18+margin_vat!J25</f>
         <v>126826.12072000002</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="51">
         <f>margin_vat!K4+margin_vat!K11+margin_vat!K18+margin_vat!K25</f>
         <v>31809.523362872427</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="18">
         <f t="shared" si="0"/>
         <v>95016.597357127597</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="18">
         <f>(SUM('charges'!$C$2:$C$36))*C4</f>
         <v>954481.44912207767</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C4</f>
         <v>342785.1489893978</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C4</f>
         <v>165408.92689170901</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="51">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C4</f>
         <v>113017.60695840027</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C4</f>
         <v>53977.86347914103</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C4</f>
         <v>16068.168661988972</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C4</f>
         <v>31723.161714749931</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C4</f>
         <v>18764.640154886034</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="51">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C4</f>
         <v>210650.97225459514</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C4</f>
         <v>2084.9600172095593</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="18">
         <f>margin_vat!C5+margin_vat!C12+margin_vat!C19+margin_vat!C26</f>
         <v>1027195.6636240002</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="53">
         <f>total_final[[#This Row],[sales_turnover]]/B4</f>
         <v>1.0425216878015577</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="18">
         <f>margin_vat!H5+margin_vat!H12+margin_vat!H19+margin_vat!H26</f>
         <v>230992.05905057298</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="46">
         <f>margin_vat!J5+margin_vat!J12+margin_vat!J19+margin_vat!J26</f>
         <v>132396.08888480003</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="51">
         <f>margin_vat!K5+margin_vat!K12+margin_vat!K19+margin_vat!K26</f>
         <v>33332.875679205506</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="18">
         <f t="shared" si="0"/>
         <v>99063.213205594526</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="18">
         <f>(SUM('charges'!$C$2:$C$36))*C5</f>
         <v>954519.61006503168</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C5</f>
         <v>342798.85381784482</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C5</f>
         <v>165415.54007484525</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="51">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C5</f>
         <v>113022.12549404694</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C5</f>
         <v>53980.021557929154</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C5</f>
         <v>16068.811080412346</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C5</f>
         <v>31724.430032500506</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C5</f>
         <v>18765.390380428038</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="51">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C5</f>
         <v>210659.39425142159</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C5</f>
         <v>2085.0433756031157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="18">
         <f>margin_vat!C6+margin_vat!C13+margin_vat!C20+margin_vat!C27</f>
         <v>1070917.1838497601</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="53">
         <f>total_final[[#This Row],[sales_turnover]]/B5</f>
         <v>1.0425639649524105</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="18">
         <f>margin_vat!H6+margin_vat!H13+margin_vat!H20+margin_vat!H27</f>
         <v>241561.88973623229</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="46">
         <f>margin_vat!J6+margin_vat!J13+margin_vat!J20+margin_vat!J27</f>
         <v>138218.67117635201</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="51">
         <f>margin_vat!K6+margin_vat!K13+margin_vat!K20+margin_vat!K27</f>
         <v>34932.220371101001</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="18">
         <f t="shared" si="0"/>
         <v>103286.45080525102</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="18">
         <f>(SUM('charges'!$C$2:$C$36))*C6</f>
         <v>954558.31848713825</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C6</f>
         <v>342812.75526375679</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C6</f>
         <v>165422.24813456525</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="51">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C6</f>
         <v>113026.70885524231</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C6</f>
         <v>53982.210597774698</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C6</f>
         <v>16069.46271534524</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C6</f>
         <v>31725.71654627753</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C6</f>
         <v>18766.15136914339</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="51">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C6</f>
         <v>210667.93707512831</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C6</f>
         <v>2085.127929904821</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="18">
         <f>margin_vat!C7+margin_vat!C14+margin_vat!C21+margin_vat!C28</f>
         <v>1116545.5865053986</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="53">
         <f>total_final[[#This Row],[sales_turnover]]/B6</f>
         <v>1.0426068451825681</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="18">
         <f>margin_vat!H7+margin_vat!H14+margin_vat!H21+margin_vat!H28</f>
         <v>252634.32254873618</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="46">
         <f>margin_vat!J7+margin_vat!J14+margin_vat!J21+margin_vat!J28</f>
         <v>144305.76108373574</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="51">
         <f>margin_vat!K7+margin_vat!K14+margin_vat!K21+margin_vat!K28</f>
         <v>36611.500630555958</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="18">
         <f t="shared" si="0"/>
         <v>107694.26045317977</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="18">
         <f>(SUM('charges'!$C$2:$C$36))*C7</f>
         <v>954597.57908099296</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C7</f>
         <v>342826.85501239647</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C7</f>
         <v>165429.05188408244</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="51">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C7</f>
         <v>113031.35759762416</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C7</f>
         <v>53984.430864053465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C7</f>
         <v>16070.123645784912</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C7</f>
         <v>31727.021412044189</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C7</f>
         <v>18766.923213286227</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="51">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C7</f>
         <v>210676.601761356</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="46">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C7</f>
         <v>2085.2136903651362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="30">
         <f>margin_vat!C8+margin_vat!C15+margin_vat!C22+margin_vat!C29</f>
         <v>1164166.6281853616</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="54">
         <f>total_final[[#This Row],[sales_turnover]]/B7</f>
         <v>1.042650333542591</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="30">
         <f>margin_vat!H8+margin_vat!H15+margin_vat!H22+margin_vat!H29</f>
         <v>264234.2501071234</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="47">
         <f>margin_vat!J8+margin_vat!J15+margin_vat!J22+margin_vat!J29</f>
         <v>150669.83517103453</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="52">
         <f>margin_vat!K8+margin_vat!K15+margin_vat!K22+margin_vat!K29</f>
         <v>38374.871587065754</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="30">
         <f t="shared" si="0"/>
         <v>112294.96358396878</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="30">
         <f>(SUM('charges'!$C$2:$C$36))*C8</f>
         <v>954637.39647082484</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="30">
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C8</f>
         <v>342841.15472447412</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="47">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C8</f>
         <v>165435.95212476261</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="52">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C8</f>
         <v>113036.07226873514</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="30">
         <f>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C8</f>
         <v>53986.682618275008</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="30">
         <f>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C8</f>
         <v>16070.793949577708</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="30">
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C8</f>
         <v>31728.344783491437</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="47">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C8</f>
         <v>18767.706003766638</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="52">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C8</f>
         <v>210685.38933065705</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="47">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C8</f>
         <v>2085.3006670851819</v>
       </c>
@@ -7036,8 +7551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15517C16-0392-4D50-8389-3547429C0B1C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7049,7 +7564,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>147</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -7058,47 +7573,47 @@
       <c r="C1" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="40" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="18">
         <f>total_final!B2</f>
         <v>906671</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="18">
         <f>total_final!H2</f>
         <v>915587.29303550266</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="19">
         <f t="shared" ref="D2:D8" si="0">B2-C2</f>
         <v>-8916.293035502662</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="46">
         <f>D2</f>
         <v>-8916.293035502662</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="18">
         <f>total_final!B3</f>
         <v>945149.14</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="18">
         <f>total_final!H3</f>
         <v>954443.83090165386</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="19">
         <f t="shared" si="0"/>
         <v>-9294.6909016538411</v>
       </c>
@@ -7108,39 +7623,39 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="18">
         <f>total_final!B4</f>
         <v>985299.08360000001</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="18">
         <f>total_final!H4</f>
         <v>954481.44912207767</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="19">
         <f t="shared" si="0"/>
         <v>30817.634477922344</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="46">
         <f t="shared" si="1"/>
         <v>12606.650540765841</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="18">
         <f>total_final!B5</f>
         <v>1027195.6636240002</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="18">
         <f>total_final!H5</f>
         <v>954519.61006503168</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="19">
         <f t="shared" si="0"/>
         <v>72676.053558968473</v>
       </c>
@@ -7150,39 +7665,39 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="18">
         <f>total_final!B6</f>
         <v>1070917.1838497601</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="18">
         <f>total_final!H6</f>
         <v>954558.31848713825</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="19">
         <f t="shared" si="0"/>
         <v>116358.86536262184</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="46">
         <f t="shared" si="1"/>
         <v>201641.56946235616</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="18">
         <f>total_final!B7</f>
         <v>1116545.5865053986</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="18">
         <f>total_final!H7</f>
         <v>954597.57908099296</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="19">
         <f t="shared" si="0"/>
         <v>161948.00742440566</v>
       </c>
@@ -7192,18 +7707,18 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="30">
         <f>total_final!B8</f>
         <v>1164166.6281853616</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="30">
         <f>total_final!H8</f>
         <v>954637.39647082484</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="31">
         <f t="shared" si="0"/>
         <v>209529.23171453679</v>
       </c>
@@ -7243,7 +7758,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="38" t="s">
         <v>159</v>
       </c>
       <c r="B1" t="s">
@@ -8330,7 +8845,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F11" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8492,13 +9007,13 @@
         <f t="shared" si="0"/>
         <v>172500</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="37">
         <f>F2+F4+F9+F10</f>
         <v>906671</v>
       </c>
@@ -8648,8 +9163,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8672,356 +9187,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="40" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="18">
         <f>total_estimate!F9</f>
         <v>110565</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>9213.75</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="16">
         <v>1.06</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="22">
         <v>1.98</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="18">
         <f t="shared" ref="H2:H8" si="0">C2/$G$2</f>
         <v>55840.909090909088</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>4653.409090909091</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="18">
         <f>C2*0.2</f>
         <v>22113</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="46">
         <f>H2*0.2</f>
         <v>11168.181818181818</v>
       </c>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="18">
         <f>C2*$E$2</f>
         <v>117198.90000000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>9766.5750000000007</v>
       </c>
-      <c r="H3" s="2">
+      <c r="E3" s="16"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="18">
         <f t="shared" si="0"/>
         <v>59191.36363636364</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>4932.6136363636369</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="18">
         <f t="shared" ref="J3:J15" si="1">C3*0.2</f>
         <v>23439.780000000002</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="46">
         <f t="shared" ref="K3:K15" si="2">H3*0.2</f>
         <v>11838.272727272728</v>
       </c>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C8" si="3">C3*$E$2</f>
         <v>124230.83400000002</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>10352.569500000001</v>
       </c>
-      <c r="H4" s="2">
+      <c r="E4" s="16"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="18">
         <f t="shared" si="0"/>
         <v>62742.845454545466</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>5228.5704545454555</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="18">
         <f t="shared" si="1"/>
         <v>24846.166800000006</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="46">
         <f t="shared" si="2"/>
         <v>12548.569090909094</v>
       </c>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="18">
         <f t="shared" si="3"/>
         <v>131684.68404000002</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>10973.723670000001</v>
       </c>
-      <c r="H5" s="2">
+      <c r="E5" s="16"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="18">
         <f t="shared" si="0"/>
         <v>66507.416181818189</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>5542.2846818181824</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="18">
         <f t="shared" si="1"/>
         <v>26336.936808000006</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="46">
         <f t="shared" si="2"/>
         <v>13301.483236363638</v>
       </c>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="18">
         <f t="shared" si="3"/>
         <v>139585.76508240003</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>11632.147090200002</v>
       </c>
-      <c r="H6" s="2">
+      <c r="E6" s="16"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="18">
         <f t="shared" si="0"/>
         <v>70497.861152727288</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>5874.8217627272743</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="18">
         <f t="shared" si="1"/>
         <v>27917.153016480006</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="46">
         <f t="shared" si="2"/>
         <v>14099.572230545458</v>
       </c>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="18">
         <f t="shared" si="3"/>
         <v>147960.91098734405</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>12330.075915612004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="E7" s="16"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="18">
         <f t="shared" si="0"/>
         <v>74727.732821890939</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>6227.3110684909116</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="18">
         <f t="shared" si="1"/>
         <v>29592.18219746881</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="46">
         <f t="shared" si="2"/>
         <v>14945.546564378188</v>
       </c>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="18">
         <f t="shared" si="3"/>
         <v>156838.5656465847</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>13069.880470548725</v>
       </c>
-      <c r="H8" s="2">
+      <c r="E8" s="16"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="18">
         <f t="shared" si="0"/>
         <v>79211.396791204388</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>6600.9497326003657</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="18">
         <f t="shared" si="1"/>
         <v>31367.71312931694</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="46">
         <f t="shared" si="2"/>
         <v>15842.279358240878</v>
       </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="18">
         <f>total_estimate!F4</f>
         <v>92000</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>7666.666666666667</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="16">
         <v>1.04</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="22">
         <v>1.7</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="18">
         <f>((C9/5)/$G$9)+((C9/5*4)/$G$10)</f>
         <v>31852.100840336134</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>2654.3417366946778</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="18">
         <f t="shared" si="1"/>
         <v>18400</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="46">
         <f t="shared" si="2"/>
         <v>6370.4201680672268</v>
       </c>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="30">
         <f>C9*$E$9</f>
         <v>95680</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="31">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>7973.333333333333</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="27">
         <v>3.5</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="30">
         <f t="shared" ref="H10:H15" si="4">((C10/5)/$G$9)+((C10/5*4)/$G$10)</f>
         <v>33126.184873949576</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="30">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>2760.5154061624648</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="30">
         <f t="shared" si="1"/>
         <v>19136</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="47">
         <f t="shared" si="2"/>
         <v>6625.2369747899156</v>
       </c>
@@ -9029,33 +9563,36 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="18">
         <f t="shared" ref="C11:C15" si="5">C10*$E$9</f>
         <v>99507.199999999997</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>8292.2666666666664</v>
       </c>
-      <c r="H11" s="2">
+      <c r="E11" s="16"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18">
         <f t="shared" si="4"/>
         <v>34451.232268907559</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>2870.9360224089633</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="18">
         <f t="shared" si="1"/>
         <v>19901.440000000002</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="46">
         <f t="shared" si="2"/>
         <v>6890.2464537815122</v>
       </c>
@@ -9063,33 +9600,36 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="18">
         <f t="shared" si="5"/>
         <v>103487.488</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>8623.9573333333337</v>
       </c>
-      <c r="H12" s="2">
+      <c r="E12" s="16"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="18">
         <f t="shared" si="4"/>
         <v>35829.281559663861</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>2985.7734633053219</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="18">
         <f t="shared" si="1"/>
         <v>20697.497600000002</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="46">
         <f t="shared" si="2"/>
         <v>7165.8563119327728</v>
       </c>
@@ -9097,33 +9637,36 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="18">
         <f t="shared" si="5"/>
         <v>107626.98752</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>8968.9156266666669</v>
       </c>
-      <c r="H13" s="2">
+      <c r="E13" s="16"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="18">
         <f t="shared" si="4"/>
         <v>37262.452822050422</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>3105.204401837535</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="18">
         <f t="shared" si="1"/>
         <v>21525.397504</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="46">
         <f t="shared" si="2"/>
         <v>7452.4905644100845</v>
       </c>
@@ -9131,33 +9674,36 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="18">
         <f t="shared" si="5"/>
         <v>111932.06702079999</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>9327.6722517333328</v>
       </c>
-      <c r="H14" s="2">
+      <c r="E14" s="16"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="18">
         <f t="shared" si="4"/>
         <v>38752.950934932436</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>3229.4125779110364</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="18">
         <f t="shared" si="1"/>
         <v>22386.413404160001</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="46">
         <f t="shared" si="2"/>
         <v>7750.5901869864874</v>
       </c>
@@ -9165,33 +9711,36 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="18">
         <f t="shared" si="5"/>
         <v>116409.349701632</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>9700.7791418026663</v>
       </c>
-      <c r="H15" s="2">
+      <c r="E15" s="16"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="18">
         <f t="shared" si="4"/>
         <v>40303.068972329733</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>3358.5890810274777</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="18">
         <f t="shared" si="1"/>
         <v>23281.869940326404</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="46">
         <f t="shared" si="2"/>
         <v>8060.6137944659467</v>
       </c>
@@ -9199,42 +9748,42 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="18">
         <f>total_estimate!F2</f>
         <v>649350</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>54112.5</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="16">
         <v>1.04</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="22">
         <v>4</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="18">
         <f>((C16/4)/$G$16)+((C16/4*3)/$G$17)</f>
         <v>114374.14772727274</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>9531.1789772727279</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="18">
         <f>C16*0.1</f>
         <v>64935</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="46">
         <f>H16*0.1</f>
         <v>11437.414772727274</v>
       </c>
@@ -9245,39 +9794,40 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="18">
         <f>C16*$E$16</f>
         <v>675324</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>56277</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="22">
         <v>6.6</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="18">
         <f t="shared" ref="H17:H22" si="6">((C17/4)/$G$16)+((C17/4*3)/$G$17)</f>
         <v>118949.11363636365</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>9912.4261363636379</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="18">
         <f t="shared" ref="J17:J22" si="7">C17*0.1</f>
         <v>67532.400000000009</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="46">
         <f t="shared" ref="K17:K22" si="8">H17*0.1</f>
         <v>11894.911363636365</v>
       </c>
@@ -9288,386 +9838,419 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="18">
         <f t="shared" ref="C18:C22" si="9">C17*$E$16</f>
         <v>702336.96000000008</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>58528.080000000009</v>
       </c>
-      <c r="H18" s="2">
+      <c r="E18" s="16"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="18">
         <f t="shared" si="6"/>
         <v>123707.07818181821</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>10308.923181818185</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="18">
         <f t="shared" si="7"/>
         <v>70233.696000000011</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="46">
         <f t="shared" si="8"/>
         <v>12370.707818181821</v>
       </c>
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="18">
         <f t="shared" si="9"/>
         <v>730430.4384000001</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>60869.203200000011</v>
       </c>
-      <c r="H19" s="2">
+      <c r="E19" s="16"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="18">
         <f t="shared" si="6"/>
         <v>128655.36130909092</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>10721.280109090911</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="18">
         <f t="shared" si="7"/>
         <v>73043.043840000013</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="46">
         <f t="shared" si="8"/>
         <v>12865.536130909093</v>
       </c>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="30">
         <f t="shared" si="9"/>
         <v>759647.65593600017</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="31">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>63303.971328000014</v>
       </c>
-      <c r="H20" s="2">
+      <c r="E20" s="28"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="30">
         <f t="shared" si="6"/>
         <v>133801.57576145459</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="30">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>11150.131313454549</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="30">
         <f t="shared" si="7"/>
         <v>75964.765593600023</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="47">
         <f t="shared" si="8"/>
         <v>13380.157576145459</v>
       </c>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="18">
         <f t="shared" si="9"/>
         <v>790033.56217344024</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>65836.130181120025</v>
       </c>
-      <c r="H21" s="2">
+      <c r="E21" s="16"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18">
         <f t="shared" si="6"/>
         <v>139153.63879191279</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>11596.136565992732</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="18">
         <f t="shared" si="7"/>
         <v>79003.35621734403</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="46">
         <f t="shared" si="8"/>
         <v>13915.36387919128</v>
       </c>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="18">
         <f t="shared" si="9"/>
         <v>821634.90466037788</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>68469.575388364829</v>
       </c>
-      <c r="H22" s="2">
+      <c r="E22" s="16"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="18">
         <f t="shared" si="6"/>
         <v>144719.7843435893</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>12059.982028632441</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="18">
         <f t="shared" si="7"/>
         <v>82163.490466037794</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="46">
         <f t="shared" si="8"/>
         <v>14471.978434358931</v>
       </c>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="18">
         <f>total_estimate!F10</f>
         <v>54756</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>4563</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="16">
         <v>1.04</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="22">
         <v>1</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="18">
         <v>0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>0</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="18">
         <f>C23*0.2</f>
         <v>10951.2</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="18">
         <f>C23*$E$23</f>
         <v>56946.240000000005</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>4745.5200000000004</v>
       </c>
-      <c r="H24" s="1">
+      <c r="E24" s="16"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="18">
         <v>0</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>0</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="18">
         <f t="shared" ref="J24:J29" si="10">C24*0.2</f>
         <v>11389.248000000001</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="18">
         <f t="shared" ref="C25:C29" si="11">C24*$E$23</f>
         <v>59224.089600000007</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>4935.3408000000009</v>
       </c>
-      <c r="H25" s="1">
+      <c r="E25" s="16"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="18">
         <v>0</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>0</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="18">
         <f t="shared" si="10"/>
         <v>11844.817920000001</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="18">
         <f t="shared" si="11"/>
         <v>61593.053184000011</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>5132.7544320000006</v>
       </c>
-      <c r="H26" s="1">
+      <c r="E26" s="16"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="18">
         <v>0</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>0</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="18">
         <f t="shared" si="10"/>
         <v>12318.610636800004</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="18">
         <f t="shared" si="11"/>
         <v>64056.775311360012</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>5338.0646092800007</v>
       </c>
-      <c r="H27" s="1">
+      <c r="E27" s="16"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="18">
         <v>0</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>0</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="18">
         <f t="shared" si="10"/>
         <v>12811.355062272003</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="18">
         <f t="shared" si="11"/>
         <v>66619.046323814415</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>5551.5871936512012</v>
       </c>
-      <c r="H28" s="1">
+      <c r="E28" s="16"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="18">
         <v>0</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>0</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="18">
         <f t="shared" si="10"/>
         <v>13323.809264762884</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="30">
         <f t="shared" si="11"/>
         <v>69283.808176766994</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="31">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>5773.6506813972492</v>
       </c>
-      <c r="H29" s="1">
+      <c r="E29" s="28"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="30">
         <v>0</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="30">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>0</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="30">
         <f t="shared" si="10"/>
         <v>13856.761635353399</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="47">
         <v>0</v>
       </c>
     </row>
@@ -9684,8 +10267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B34332A-5ACF-4335-B316-FE568B5CE012}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9700,19 +10283,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="40" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -9720,20 +10303,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="18">
         <v>65000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="19">
         <f>C2/12</f>
         <v>5416.666666666667</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="42" t="s">
         <v>122</v>
       </c>
       <c r="H2" s="11">
@@ -9742,38 +10325,38 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="18">
         <v>65000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="19">
         <f t="shared" ref="D3" si="0">C3/12</f>
         <v>5416.666666666667</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="42" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="18">
         <v>30041</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="19">
         <f t="shared" ref="D4:D26" si="1">C4/12</f>
         <v>2503.4166666666665</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="42" t="s">
         <v>122</v>
       </c>
       <c r="G4" t="s">
@@ -9781,18 +10364,18 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="C5" s="18"/>
+      <c r="D5" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="42" t="s">
         <v>122</v>
       </c>
       <c r="G5" t="s">
@@ -9808,20 +10391,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="18">
         <v>30041</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="19">
         <f t="shared" si="1"/>
         <v>2503.4166666666665</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="42" t="s">
         <v>122</v>
       </c>
       <c r="G6" t="s">
@@ -9837,20 +10420,20 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="18">
         <v>30041</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="19">
         <f t="shared" si="1"/>
         <v>2503.4166666666665</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="42" t="s">
         <v>122</v>
       </c>
       <c r="G7" t="s">
@@ -9866,20 +10449,20 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="18">
         <v>30041</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="19">
         <f t="shared" si="1"/>
         <v>2503.4166666666665</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="42" t="s">
         <v>122</v>
       </c>
       <c r="G8" t="s">
@@ -9895,20 +10478,20 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="18">
         <v>48612</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="19">
         <f t="shared" si="1"/>
         <v>4051</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="42" t="s">
         <v>122</v>
       </c>
       <c r="G9" t="s">
@@ -9924,20 +10507,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="30">
         <v>30041</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="31">
         <f t="shared" si="1"/>
         <v>2503.4166666666665</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="39" t="s">
         <v>122</v>
       </c>
       <c r="G10" t="s">
@@ -9953,19 +10536,20 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="18">
         <v>120000</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="19">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
+      <c r="E11" s="42"/>
       <c r="G11" t="s">
         <v>192</v>
       </c>
@@ -9979,21 +10563,21 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="18">
         <f>total_estimate!J2*0.03</f>
         <v>31036.68</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="19">
         <f t="shared" si="1"/>
         <v>2586.39</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="42" t="s">
         <v>130</v>
       </c>
       <c r="G12" t="s">
@@ -10009,20 +10593,20 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="18">
         <v>7632</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="19">
         <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="42" t="s">
         <v>131</v>
       </c>
       <c r="G13" t="s">
@@ -10038,399 +10622,404 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="18">
         <v>2516</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="19">
         <f t="shared" si="1"/>
         <v>209.66666666666666</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="42" t="s">
         <v>131</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="18">
         <f>1826*12</f>
         <v>21912</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="19">
         <f t="shared" si="1"/>
         <v>1826</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="42" t="s">
         <v>133</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="18">
         <f>60000/5</f>
         <v>12000</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="19">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="42" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="18">
         <f>988.86*12</f>
         <v>11866.32</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="19">
         <f t="shared" si="1"/>
         <v>988.86</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="42" t="s">
         <v>134</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="18">
         <f>30000/5</f>
         <v>6000</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="19">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="42" t="s">
         <v>190</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="18">
         <f>total_estimate!J5*0.017</f>
         <v>15413.407000000001</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="19">
         <f t="shared" si="1"/>
         <v>1284.4505833333335</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="42" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="30">
         <v>22152</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="31">
         <f t="shared" si="1"/>
         <v>1846</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="39" t="s">
         <v>138</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="18">
         <f>(((28*30*351)/1000)*4.64)*1.3</f>
         <v>1778.47488</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="19">
         <f t="shared" si="1"/>
         <v>148.20624000000001</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="42" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="18">
         <v>2000</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="19">
         <f t="shared" si="1"/>
         <v>166.66666666666666</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="42" t="s">
         <v>143</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="18">
         <v>3000</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="19">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="E23" s="36"/>
+      <c r="E23" s="42"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="18">
         <v>1500</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="19">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="E24" s="36"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="18">
         <v>18000</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="19">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="18">
         <v>2000</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="19">
         <f t="shared" si="1"/>
         <v>166.66666666666666</v>
       </c>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="18">
         <f>total_estimate!$J$5*0.0068</f>
         <v>6165.3627999999999</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="19">
         <f t="shared" ref="D27:D32" si="4">C27/12</f>
         <v>513.78023333333329</v>
       </c>
+      <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="18">
         <f>total_estimate!$J$5*0.0013</f>
         <v>1178.6723</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="19">
         <f t="shared" si="4"/>
         <v>98.222691666666663</v>
       </c>
+      <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="30">
         <v>0</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="49">
         <v>7349</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="44">
         <f t="shared" si="4"/>
         <v>612.41666666666663</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="40" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="18">
         <f>(total_estimate!J5-total_final!D2-C11-C12-C20-C25-C21-C13)*0.0075</f>
         <v>3780.0351559611149</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="19">
         <f t="shared" si="4"/>
         <v>315.00292966342624</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="42" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="18">
         <f>total_final!G2</f>
         <v>87423.183241023682</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="19">
         <f t="shared" si="4"/>
         <v>7285.2652700853068</v>
       </c>
+      <c r="E32" s="42"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="18">
         <f>margin_vat!H2</f>
         <v>55840.909090909088</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="19">
         <f>margin_vat!H2/12</f>
         <v>4653.409090909091</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="18">
         <f>D34*12</f>
         <v>31852.100840336134</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="19">
         <f>margin_vat!H9/12</f>
         <v>2654.3417366946778</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="30">
         <f>margin_vat!H16</f>
         <v>114374.14772727274</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="31">
         <f>margin_vat!H16/12</f>
         <v>9531.1789772727279</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="39" t="s">
         <v>53</v>
       </c>
     </row>

--- a/document/projet_vapo_game_food_78.xlsx
+++ b/document/projet_vapo_game_food_78.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LIONS_CLUB\BP\finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55630CEF-F83F-4284-9AF0-42EEA8BFD7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010C8727-A338-4484-8143-A2FE12D0D9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estimation_working" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -879,17 +879,9 @@
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -900,57 +892,29 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="112">
     <dxf>
-      <numFmt numFmtId="174" formatCode="0.000"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -963,28 +927,245 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1020,8 +1201,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1061,8 +1246,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1101,8 +1290,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1141,8 +1334,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1179,12 +1376,32 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1202,8 +1419,343 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1218,8 +1770,19 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1227,15 +1790,15 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1243,232 +1806,19 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1502,8 +1852,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1536,8 +1890,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1554,8 +1912,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1570,37 +1932,35 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1631,8 +1991,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1649,8 +2013,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1683,8 +2051,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1717,8 +2089,146 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1733,25 +2243,19 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+      <border>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1768,100 +2272,31 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1902,180 +2337,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -4602,20 +4863,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF903CF4-1E7D-44E5-BEA7-B520E54648C6}" name="estimate_day_vape" displayName="estimate_day_vape" ref="A1:G6" totalsRowShown="0" headerRowDxfId="107" headerRowBorderDxfId="106" tableBorderDxfId="105" totalsRowBorderDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF903CF4-1E7D-44E5-BEA7-B520E54648C6}" name="estimate_day_vape" displayName="estimate_day_vape" ref="A1:G6" totalsRowShown="0" headerRowDxfId="111" headerRowBorderDxfId="110" tableBorderDxfId="109" totalsRowBorderDxfId="108">
   <autoFilter ref="A1:G6" xr:uid="{DF903CF4-1E7D-44E5-BEA7-B520E54648C6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{23CFEFCF-6BE6-4B7C-AF52-8B826EC8B8D4}" name="day_phase" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{A008C58E-40A3-4426-8E6E-D25B6A6542FE}" name="nb_hours per_phase_currently" dataDxfId="102" dataCellStyle="Pourcentage"/>
-    <tableColumn id="3" xr3:uid="{10D8A708-EA2A-474A-A1B2-96F6B737E074}" name="nb_hours_per_phase_shortly" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{62674C9A-3F0E-453A-B30E-7470779849A0}" name="sales_in_euros_per_hours_currently" dataDxfId="100" dataCellStyle="Monétaire"/>
-    <tableColumn id="5" xr3:uid="{473C7E99-151D-4ABB-BC78-BBFBD411D21A}" name="sales_in_euros_per_hours_shortly" dataDxfId="99" dataCellStyle="Monétaire">
+    <tableColumn id="1" xr3:uid="{23CFEFCF-6BE6-4B7C-AF52-8B826EC8B8D4}" name="day_phase" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{A008C58E-40A3-4426-8E6E-D25B6A6542FE}" name="nb_hours per_phase_currently" dataDxfId="106" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{10D8A708-EA2A-474A-A1B2-96F6B737E074}" name="nb_hours_per_phase_shortly" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{62674C9A-3F0E-453A-B30E-7470779849A0}" name="sales_in_euros_per_hours_currently" dataDxfId="104" dataCellStyle="Monétaire"/>
+    <tableColumn id="5" xr3:uid="{473C7E99-151D-4ABB-BC78-BBFBD411D21A}" name="sales_in_euros_per_hours_shortly" dataDxfId="103" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(172500/351/15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{581BB6AE-99F8-475E-A250-7B05946FAF20}" name="total_sales_per_phase_currently" dataDxfId="98">
+    <tableColumn id="6" xr3:uid="{581BB6AE-99F8-475E-A250-7B05946FAF20}" name="total_sales_per_phase_currently" dataDxfId="102">
       <calculatedColumnFormula>B2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8325D864-2851-4EF5-B443-3906E0CE532F}" name="total_sales_per_phase_shortly" dataDxfId="97">
+    <tableColumn id="7" xr3:uid="{8325D864-2851-4EF5-B443-3906E0CE532F}" name="total_sales_per_phase_shortly" dataDxfId="101">
       <calculatedColumnFormula>C2*E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4624,18 +4885,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF861EAE-F634-4A6C-8B5A-E8E014EC37C7}" name="estimate_day_food" displayName="estimate_day_food" ref="A1:G6" totalsRowShown="0" headerRowDxfId="96" headerRowBorderDxfId="95" tableBorderDxfId="94" totalsRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF861EAE-F634-4A6C-8B5A-E8E014EC37C7}" name="estimate_day_food" displayName="estimate_day_food" ref="A1:G6" totalsRowShown="0" headerRowDxfId="100" headerRowBorderDxfId="99" tableBorderDxfId="98" totalsRowBorderDxfId="97">
   <autoFilter ref="A1:G6" xr:uid="{CF861EAE-F634-4A6C-8B5A-E8E014EC37C7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9E020EF9-9A46-4E74-956C-E2FE5860F4B1}" name="day_phase" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{A3D2F7E5-B4BE-4D75-B225-5D33FDE6465D}" name="seating_capacity" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{6950911F-3B8A-4657-A345-383C756455F4}" name="capacity_rate_retained" dataDxfId="90" dataCellStyle="Pourcentage"/>
-    <tableColumn id="4" xr3:uid="{32330EDC-3FBD-4F88-8C35-5C47B490B1B2}" name="nb_hours_per_phase" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{8EB65EB0-272F-4E70-95AF-9FFA0F0BB2D3}" name="sales_in_euros_per_hours_per_place" dataDxfId="88" dataCellStyle="Monétaire"/>
-    <tableColumn id="6" xr3:uid="{5CDE070B-F4A4-45A6-904A-19FF3B985099}" name="total_sales_per_phase" dataDxfId="87">
+    <tableColumn id="1" xr3:uid="{9E020EF9-9A46-4E74-956C-E2FE5860F4B1}" name="day_phase" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{A3D2F7E5-B4BE-4D75-B225-5D33FDE6465D}" name="seating_capacity" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{6950911F-3B8A-4657-A345-383C756455F4}" name="capacity_rate_retained" dataDxfId="94" dataCellStyle="Pourcentage"/>
+    <tableColumn id="4" xr3:uid="{32330EDC-3FBD-4F88-8C35-5C47B490B1B2}" name="nb_hours_per_phase" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{8EB65EB0-272F-4E70-95AF-9FFA0F0BB2D3}" name="sales_in_euros_per_hours_per_place" dataDxfId="92" dataCellStyle="Monétaire"/>
+    <tableColumn id="6" xr3:uid="{5CDE070B-F4A4-45A6-904A-19FF3B985099}" name="total_sales_per_phase" dataDxfId="91">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A5570C01-187A-4898-B374-A8CBAA81543D}" name="total_sales_per_capacity_rate_retained" dataDxfId="86">
+    <tableColumn id="7" xr3:uid="{A5570C01-187A-4898-B374-A8CBAA81543D}" name="total_sales_per_capacity_rate_retained" dataDxfId="90">
       <calculatedColumnFormula>(B2*C2)*F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4644,18 +4905,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EC47570D-C5AF-46A2-A080-AAE2ACC7C482}" name="estimate_day_game" displayName="estimate_day_game" ref="A1:G6" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EC47570D-C5AF-46A2-A080-AAE2ACC7C482}" name="estimate_day_game" displayName="estimate_day_game" ref="A1:G6" totalsRowShown="0" headerRowDxfId="89" headerRowBorderDxfId="88" tableBorderDxfId="87" totalsRowBorderDxfId="86">
   <autoFilter ref="A1:G6" xr:uid="{EC47570D-C5AF-46A2-A080-AAE2ACC7C482}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F9979B3E-ED40-4058-895A-CFD5E567B4A2}" name="day_phase" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{26003C65-77AC-4EA9-8B8F-4B4625D4BE47}" name="nb_hours per_phase_currently" dataDxfId="80" dataCellStyle="Pourcentage"/>
-    <tableColumn id="3" xr3:uid="{412D42C2-2030-4AF0-800A-46BAF32E7E5A}" name="nb_hours_per_phase_shortly" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{F658F7BD-470C-40E7-9900-4AD36D1A82CF}" name="sales_in_euros_per_hours_currently" dataDxfId="78" dataCellStyle="Monétaire"/>
-    <tableColumn id="5" xr3:uid="{F2A2913C-9CA1-44E8-9E8C-8410C68227F1}" name="sales_in_euros_per_hours_shortly" dataDxfId="77" dataCellStyle="Monétaire"/>
-    <tableColumn id="6" xr3:uid="{0179E88F-CB83-4691-8A01-7F7BACBBDF79}" name="total_sales_per_phase_currently" dataDxfId="76">
+    <tableColumn id="1" xr3:uid="{F9979B3E-ED40-4058-895A-CFD5E567B4A2}" name="day_phase" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{26003C65-77AC-4EA9-8B8F-4B4625D4BE47}" name="nb_hours per_phase_currently" dataDxfId="84" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{412D42C2-2030-4AF0-800A-46BAF32E7E5A}" name="nb_hours_per_phase_shortly" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{F658F7BD-470C-40E7-9900-4AD36D1A82CF}" name="sales_in_euros_per_hours_currently" dataDxfId="82" dataCellStyle="Monétaire"/>
+    <tableColumn id="5" xr3:uid="{F2A2913C-9CA1-44E8-9E8C-8410C68227F1}" name="sales_in_euros_per_hours_shortly" dataDxfId="81" dataCellStyle="Monétaire"/>
+    <tableColumn id="6" xr3:uid="{0179E88F-CB83-4691-8A01-7F7BACBBDF79}" name="total_sales_per_phase_currently" dataDxfId="80">
       <calculatedColumnFormula>B2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A0C54FCE-F803-44D6-897C-55CF71E5FA81}" name="total_sales_per_phase_shortly" dataDxfId="75">
+    <tableColumn id="7" xr3:uid="{A0C54FCE-F803-44D6-897C-55CF71E5FA81}" name="total_sales_per_phase_shortly" dataDxfId="79">
       <calculatedColumnFormula>C2*E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4664,18 +4925,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1915052A-D639-452C-92DE-66F4A35F97CC}" name="estimate_day_ticket" displayName="estimate_day_ticket" ref="A1:G6" totalsRowShown="0" headerRowDxfId="74" headerRowBorderDxfId="73" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1915052A-D639-452C-92DE-66F4A35F97CC}" name="estimate_day_ticket" displayName="estimate_day_ticket" ref="A1:G6" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76">
   <autoFilter ref="A1:G6" xr:uid="{1915052A-D639-452C-92DE-66F4A35F97CC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B0676726-1D7A-4B8D-9C84-E85D3F233AC1}" name="day_phase" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{31E600A1-59D3-4D09-81F7-376E7CFAA59A}" name="seating_capacity" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{AF746BCA-532B-4E6B-86A2-D7FF444B6C58}" name="capacity_rate_retained" dataDxfId="69" dataCellStyle="Pourcentage"/>
-    <tableColumn id="4" xr3:uid="{7322EAE4-C101-4B42-AD47-C32D440A0BB2}" name="nb_hours_per_phase" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{58E36432-F1E0-433B-B68F-CD6DAF964B2E}" name="sales_in_euros_per_hours_per_place" dataDxfId="67" dataCellStyle="Monétaire"/>
-    <tableColumn id="6" xr3:uid="{413BB02B-2EDE-4F4B-8ECD-9E4586BB48D3}" name="total_sales_per_phase" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{B0676726-1D7A-4B8D-9C84-E85D3F233AC1}" name="day_phase" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{31E600A1-59D3-4D09-81F7-376E7CFAA59A}" name="seating_capacity" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{AF746BCA-532B-4E6B-86A2-D7FF444B6C58}" name="capacity_rate_retained" dataDxfId="73" dataCellStyle="Pourcentage"/>
+    <tableColumn id="4" xr3:uid="{7322EAE4-C101-4B42-AD47-C32D440A0BB2}" name="nb_hours_per_phase" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{58E36432-F1E0-433B-B68F-CD6DAF964B2E}" name="sales_in_euros_per_hours_per_place" dataDxfId="71" dataCellStyle="Monétaire"/>
+    <tableColumn id="6" xr3:uid="{413BB02B-2EDE-4F4B-8ECD-9E4586BB48D3}" name="total_sales_per_phase" dataDxfId="70">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8A4248DD-3673-4C3F-9B56-7F25D196B0BD}" name="total_sales_per_capacity_rate_retained" dataDxfId="65">
+    <tableColumn id="7" xr3:uid="{8A4248DD-3673-4C3F-9B56-7F25D196B0BD}" name="total_sales_per_capacity_rate_retained" dataDxfId="69">
       <calculatedColumnFormula>(B2*C2)*F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4684,15 +4945,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{134F9266-D15C-4DCC-885E-4407EDED84CA}" name="total_estimate" displayName="total_estimate" ref="A1:F11" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{134F9266-D15C-4DCC-885E-4407EDED84CA}" name="total_estimate" displayName="total_estimate" ref="A1:F11" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:F11" xr:uid="{134F9266-D15C-4DCC-885E-4407EDED84CA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F228A9EC-5D2E-4E65-8F54-45939599B38D}" name="activities" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{295FCA9E-2192-44F6-A53C-D0B20B5A26E9}" name="type" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{F03D4147-79A9-4310-AE67-70606A60207A}" name="coefficient" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{8FD31160-9710-41FB-B939-5ECD9A386CF7}" name="estimate_day" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{7699E093-9E19-4BFE-A87B-7770CCB0B2DC}" name="nb_of_day_open_per_year" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{B7719EC4-6026-409D-8E28-DD73557EFC25}" name="total_sales_per_year" dataDxfId="55">
+    <tableColumn id="1" xr3:uid="{F228A9EC-5D2E-4E65-8F54-45939599B38D}" name="activities" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{295FCA9E-2192-44F6-A53C-D0B20B5A26E9}" name="type" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{F03D4147-79A9-4310-AE67-70606A60207A}" name="coefficient" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{8FD31160-9710-41FB-B939-5ECD9A386CF7}" name="estimate_day" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{7699E093-9E19-4BFE-A87B-7770CCB0B2DC}" name="nb_of_day_open_per_year" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B7719EC4-6026-409D-8E28-DD73557EFC25}" name="total_sales_per_year" dataDxfId="9">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4701,94 +4962,94 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EB1B3AB0-047B-41A3-BD0B-7E11DAE57027}" name="margin_vat" displayName="margin_vat" ref="A1:K29" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="47" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EB1B3AB0-047B-41A3-BD0B-7E11DAE57027}" name="margin_vat" displayName="margin_vat" ref="A1:K29" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="63" totalsRowBorderDxfId="62">
   <autoFilter ref="A1:K29" xr:uid="{EB1B3AB0-047B-41A3-BD0B-7E11DAE57027}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{EAABBBE8-E6BA-4E7C-908F-1A423A219B01}" name="activity" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{07A92056-AC04-45A8-A170-EAA965A32D79}" name="year" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{0DB18EA5-66F0-44AE-A23C-690CB148C9A9}" name="sales_turnover" dataDxfId="44" dataCellStyle="Monétaire"/>
-    <tableColumn id="10" xr3:uid="{851CD4F0-2E43-479A-9E6C-3793A6E636B7}" name="sales_monthly" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{EAABBBE8-E6BA-4E7C-908F-1A423A219B01}" name="activity" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{07A92056-AC04-45A8-A170-EAA965A32D79}" name="year" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{0DB18EA5-66F0-44AE-A23C-690CB148C9A9}" name="sales_turnover" dataDxfId="59" dataCellStyle="Monétaire"/>
+    <tableColumn id="10" xr3:uid="{851CD4F0-2E43-479A-9E6C-3793A6E636B7}" name="sales_monthly" dataDxfId="58">
       <calculatedColumnFormula>margin_vat[[#This Row],[sales_turnover]]/12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CDF83351-B83A-4212-8F45-B38416923108}" name="evolution_coefficient" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{0820C3BC-7CAC-4FA7-9B5D-79A9957E9C49}" name="margin_distribution" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{820CB558-D68F-4C4D-8365-923F8DA14DA0}" name="average_margin" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{0233BCA9-26BE-44A4-9FEC-19B5963583D8}" name="purchase" dataDxfId="39" dataCellStyle="Monétaire"/>
-    <tableColumn id="11" xr3:uid="{BD892F2E-9834-48AA-8A44-36FA74E3EACE}" name="purchase_monthly" dataDxfId="38" dataCellStyle="Monétaire">
+    <tableColumn id="4" xr3:uid="{CDF83351-B83A-4212-8F45-B38416923108}" name="evolution_coefficient" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{0820C3BC-7CAC-4FA7-9B5D-79A9957E9C49}" name="margin_distribution" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{820CB558-D68F-4C4D-8365-923F8DA14DA0}" name="average_margin" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{0233BCA9-26BE-44A4-9FEC-19B5963583D8}" name="purchase" dataDxfId="54" dataCellStyle="Monétaire"/>
+    <tableColumn id="11" xr3:uid="{BD892F2E-9834-48AA-8A44-36FA74E3EACE}" name="purchase_monthly" dataDxfId="53" dataCellStyle="Monétaire">
       <calculatedColumnFormula>margin_vat[[#This Row],[purchase]]/12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F0832A6B-BDB9-4225-B8BE-2421616EAAD9}" name="VAT_sold" dataDxfId="37" dataCellStyle="Monétaire">
+    <tableColumn id="8" xr3:uid="{F0832A6B-BDB9-4225-B8BE-2421616EAAD9}" name="VAT_sold" dataDxfId="52" dataCellStyle="Monétaire">
       <calculatedColumnFormula>C2*0.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9F748B71-352D-464C-83B7-515C6043F473}" name="VAT_purchased" dataDxfId="36" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" xr3:uid="{9F748B71-352D-464C-83B7-515C6043F473}" name="VAT_purchased" dataDxfId="51" dataCellStyle="Monétaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CB1CC60E-43F5-4396-ADDE-1495AE9669DF}" name="charges" displayName="charges" ref="A1:E35" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="33" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CB1CC60E-43F5-4396-ADDE-1495AE9669DF}" name="charges" displayName="charges" ref="A1:E35" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="50" totalsRowBorderDxfId="49">
   <autoFilter ref="A1:E35" xr:uid="{CB1CC60E-43F5-4396-ADDE-1495AE9669DF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{670E7DD9-C962-408C-B0FB-A13B66AC177D}" name="type" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{A6894200-F3FA-4EF7-96F2-F41A6C927546}" name="designation" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{58799E1D-5191-4FA7-B664-B02DA5C51DDB}" name="charges_annual" dataDxfId="30" dataCellStyle="Monétaire"/>
-    <tableColumn id="4" xr3:uid="{EE3A998E-4A87-4745-AF00-6B894BEE34C9}" name="charges_monthly" dataDxfId="29" dataCellStyle="Monétaire"/>
-    <tableColumn id="5" xr3:uid="{41A062A4-E677-4946-B612-688A94C015A2}" name="complement" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{670E7DD9-C962-408C-B0FB-A13B66AC177D}" name="type" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{A6894200-F3FA-4EF7-96F2-F41A6C927546}" name="designation" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{58799E1D-5191-4FA7-B664-B02DA5C51DDB}" name="charges_annual" dataDxfId="46" dataCellStyle="Monétaire"/>
+    <tableColumn id="4" xr3:uid="{EE3A998E-4A87-4745-AF00-6B894BEE34C9}" name="charges_monthly" dataDxfId="45" dataCellStyle="Monétaire"/>
+    <tableColumn id="5" xr3:uid="{41A062A4-E677-4946-B612-688A94C015A2}" name="complement" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3FA0E667-10EC-418B-995F-26749BB2FB39}" name="total_final" displayName="total_final" ref="A1:Q8" totalsRowShown="0" headerRowBorderDxfId="25" tableBorderDxfId="26" headerRowCellStyle="Monétaire" dataCellStyle="Monétaire">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3FA0E667-10EC-418B-995F-26749BB2FB39}" name="total_final" displayName="total_final" ref="A1:Q8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="43" totalsRowBorderDxfId="42" dataCellStyle="Monétaire">
   <autoFilter ref="A1:Q8" xr:uid="{3FA0E667-10EC-418B-995F-26749BB2FB39}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{E0F584D5-C5F3-4239-86C3-7F81D5629334}" name="year" dataDxfId="24" dataCellStyle="Monétaire"/>
-    <tableColumn id="2" xr3:uid="{333087C4-D469-464A-B5FE-6CEDEAF62FE5}" name="sales_turnover" dataDxfId="2" dataCellStyle="Monétaire">
+    <tableColumn id="1" xr3:uid="{E0F584D5-C5F3-4239-86C3-7F81D5629334}" name="year" dataDxfId="41" dataCellStyle="Monétaire"/>
+    <tableColumn id="2" xr3:uid="{333087C4-D469-464A-B5FE-6CEDEAF62FE5}" name="sales_turnover" dataDxfId="40" dataCellStyle="Monétaire">
       <calculatedColumnFormula>margin_vat!C2+margin_vat!C9+margin_vat!C16+margin_vat!C23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{7C1343D3-616C-443C-B18D-9AE7F870E3D9}" name="%evolution" dataDxfId="0" dataCellStyle="Monétaire"/>
-    <tableColumn id="3" xr3:uid="{ABDD4C6A-D06B-48E8-B65D-136D743DA3F8}" name="purchase" dataDxfId="1" dataCellStyle="Monétaire">
+    <tableColumn id="16" xr3:uid="{7C1343D3-616C-443C-B18D-9AE7F870E3D9}" name="%evolution" dataDxfId="39" dataCellStyle="Monétaire"/>
+    <tableColumn id="3" xr3:uid="{ABDD4C6A-D06B-48E8-B65D-136D743DA3F8}" name="purchase" dataDxfId="38" dataCellStyle="Monétaire">
       <calculatedColumnFormula>margin_vat!H2+margin_vat!H9+margin_vat!H16+margin_vat!H23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{59660459-FAD2-4B37-868A-29937DE70CDA}" name="VAT_sold" dataDxfId="23" dataCellStyle="Monétaire">
+    <tableColumn id="4" xr3:uid="{59660459-FAD2-4B37-868A-29937DE70CDA}" name="VAT_sold" dataDxfId="37" dataCellStyle="Monétaire">
       <calculatedColumnFormula>margin_vat!J2+margin_vat!J9+margin_vat!J16+margin_vat!J23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0560E593-B5AC-4931-99FC-3F50F22038AC}" name="VAT_purchased" dataDxfId="22" dataCellStyle="Monétaire">
+    <tableColumn id="5" xr3:uid="{0560E593-B5AC-4931-99FC-3F50F22038AC}" name="VAT_purchased" dataDxfId="36" dataCellStyle="Monétaire">
       <calculatedColumnFormula>margin_vat!K2+margin_vat!K9+margin_vat!K16+margin_vat!K23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8A834A4F-3F25-4E1E-9D9E-8C973B61038D}" name="VAT_due" dataDxfId="21" dataCellStyle="Monétaire">
+    <tableColumn id="6" xr3:uid="{8A834A4F-3F25-4E1E-9D9E-8C973B61038D}" name="VAT_due" dataDxfId="35" dataCellStyle="Monétaire">
       <calculatedColumnFormula>E2-F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BD34FCBF-6048-4CE8-9540-4410BDA12B95}" name="total_charges" dataDxfId="20" dataCellStyle="Monétaire">
+    <tableColumn id="7" xr3:uid="{BD34FCBF-6048-4CE8-9540-4410BDA12B95}" name="total_charges" dataDxfId="34" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUM('charges'!$C$2:$C$36))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D25EAF48-BAED-4E66-9598-89DB42B86C7E}" name="salary" dataDxfId="19" dataCellStyle="Monétaire">
+    <tableColumn id="8" xr3:uid="{D25EAF48-BAED-4E66-9598-89DB42B86C7E}" name="salary" dataDxfId="33" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B3E4B1A6-BF76-4F51-ABF5-FCEF39DE676D}" name="rent" dataDxfId="18" dataCellStyle="Monétaire">
+    <tableColumn id="9" xr3:uid="{B3E4B1A6-BF76-4F51-ABF5-FCEF39DE676D}" name="rent" dataDxfId="32" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{EABF438C-289A-4537-9A89-D618D66BE776}" name="taxes" dataDxfId="17" dataCellStyle="Monétaire">
+    <tableColumn id="10" xr3:uid="{EABF438C-289A-4537-9A89-D618D66BE776}" name="taxes" dataDxfId="31" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3DDE191A-E0E3-402B-ABEF-D9EC7BE5F738}" name="loan" dataDxfId="16" dataCellStyle="Monétaire">
+    <tableColumn id="11" xr3:uid="{3DDE191A-E0E3-402B-ABEF-D9EC7BE5F738}" name="loan" dataDxfId="30" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$L$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C818C5FE-B0C6-4C52-A9AE-896C1C41A581}" name="bank_charges" dataDxfId="15" dataCellStyle="Monétaire">
+    <tableColumn id="12" xr3:uid="{C818C5FE-B0C6-4C52-A9AE-896C1C41A581}" name="bank_charges" dataDxfId="29" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$M$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F1D2494B-AA40-4E47-97B4-53F07477C905}" name="subscription" dataDxfId="14" dataCellStyle="Monétaire">
+    <tableColumn id="13" xr3:uid="{F1D2494B-AA40-4E47-97B4-53F07477C905}" name="subscription" dataDxfId="28" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F55C646E-051D-483F-B2CE-74AC11169FE7}" name="others" dataDxfId="13" dataCellStyle="Monétaire">
+    <tableColumn id="14" xr3:uid="{F55C646E-051D-483F-B2CE-74AC11169FE7}" name="others" dataDxfId="27" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{708F79BD-11F2-4799-B46F-C1108F09EAA8}" name="stock" dataDxfId="12" dataCellStyle="Monétaire">
+    <tableColumn id="15" xr3:uid="{708F79BD-11F2-4799-B46F-C1108F09EAA8}" name="stock" dataDxfId="26" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{BB3586ED-5997-4855-8F04-73ACB85C934D}" name="subcontracting" dataDxfId="11" dataCellStyle="Monétaire">
+    <tableColumn id="17" xr3:uid="{BB3586ED-5997-4855-8F04-73ACB85C934D}" name="subcontracting" dataDxfId="25" dataCellStyle="Monétaire">
       <calculatedColumnFormula>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4797,20 +5058,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F8320F3-0E23-4172-8766-241276694378}" name="cumulative_total" displayName="cumulative_total" ref="A1:E8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4" headerRowBorderDxfId="10" tableBorderDxfId="54" totalsRowBorderDxfId="53" dataCellStyle="Monétaire">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F8320F3-0E23-4172-8766-241276694378}" name="cumulative_total" displayName="cumulative_total" ref="A1:E8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="64" headerRowBorderDxfId="1" tableBorderDxfId="24" totalsRowBorderDxfId="23" dataCellStyle="Monétaire">
   <autoFilter ref="A1:E8" xr:uid="{8F8320F3-0E23-4172-8766-241276694378}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B4A280B8-15DF-49A1-A706-F6A81D214BF1}" name="year" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F8567E1F-0DA6-4E6F-B145-C1116ECA5623}" name="sales_turnover" dataDxfId="8" dataCellStyle="Monétaire">
+    <tableColumn id="1" xr3:uid="{B4A280B8-15DF-49A1-A706-F6A81D214BF1}" name="year" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{F8567E1F-0DA6-4E6F-B145-C1116ECA5623}" name="sales_turnover" dataDxfId="21" dataCellStyle="Monétaire">
       <calculatedColumnFormula>total_final!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5401368D-C8BA-4D27-A3F0-F965F6D11D88}" name="total_charges" dataDxfId="7" dataCellStyle="Monétaire">
+    <tableColumn id="3" xr3:uid="{5401368D-C8BA-4D27-A3F0-F965F6D11D88}" name="total_charges" dataDxfId="20" dataCellStyle="Monétaire">
       <calculatedColumnFormula>total_final!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1F7694BA-C328-4E3D-A970-92857DBC397E}" name="difference" dataDxfId="6" dataCellStyle="Monétaire">
+    <tableColumn id="4" xr3:uid="{1F7694BA-C328-4E3D-A970-92857DBC397E}" name="difference" dataDxfId="19" dataCellStyle="Monétaire">
       <calculatedColumnFormula>B2-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8D255A2-A3D0-4534-9DBE-33F4C9777D7A}" name="cumulative" dataDxfId="5" dataCellStyle="Monétaire">
+    <tableColumn id="5" xr3:uid="{C8D255A2-A3D0-4534-9DBE-33F4C9777D7A}" name="cumulative" dataDxfId="18" dataCellStyle="Monétaire">
       <calculatedColumnFormula>E1+D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6960,18 +7221,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K31">
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S31 V3:V31">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6983,9 +7244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8516AA4-1A81-4232-9118-EAAFFF4307FC}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7004,67 +7263,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="25" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="18">
         <f>margin_vat!C2+margin_vat!C9+margin_vat!C16+margin_vat!C23</f>
         <v>906671</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="45">
         <f>1</f>
         <v>1</v>
       </c>
@@ -7072,11 +7331,11 @@
         <f>margin_vat!H2+margin_vat!H9+margin_vat!H16+margin_vat!H23</f>
         <v>202067.15765851794</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="18">
         <f>margin_vat!J2+margin_vat!J9+margin_vat!J16+margin_vat!J23</f>
         <v>116399.2</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="18">
         <f>margin_vat!K2+margin_vat!K9+margin_vat!K16+margin_vat!K23</f>
         <v>28976.016758976315</v>
       </c>
@@ -7092,11 +7351,11 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C2</f>
         <v>328817</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C2</f>
         <v>158668.68</v>
       </c>
-      <c r="K2" s="51">
+      <c r="K2" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C2</f>
         <v>108412.25349698481</v>
       </c>
@@ -7112,28 +7371,28 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C2</f>
         <v>30430.474880000002</v>
       </c>
-      <c r="O2" s="46">
+      <c r="O2" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C2</f>
         <v>18000</v>
       </c>
-      <c r="P2" s="51">
+      <c r="P2" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C2</f>
         <v>202067.15765851794</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="Q2" s="41">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C2</f>
         <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="43" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="18">
         <f>margin_vat!C3+margin_vat!C10+margin_vat!C17+margin_vat!C24</f>
         <v>945149.14</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="45">
         <f>total_final[[#This Row],[sales_turnover]]/B2</f>
         <v>1.0424389221669161</v>
       </c>
@@ -7141,11 +7400,11 @@
         <f>margin_vat!H3+margin_vat!H10+margin_vat!H17+margin_vat!H24</f>
         <v>211266.66214667686</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="18">
         <f>margin_vat!J3+margin_vat!J10+margin_vat!J17+margin_vat!J24</f>
         <v>121497.42800000001</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="18">
         <f>margin_vat!K3+margin_vat!K10+margin_vat!K17+margin_vat!K24</f>
         <v>30358.421065699007</v>
       </c>
@@ -7161,11 +7420,11 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C3</f>
         <v>342771.63907015888</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C3</f>
         <v>165402.4077608473</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C3</f>
         <v>113013.15268508333</v>
       </c>
@@ -7181,28 +7440,28 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C3</f>
         <v>31721.91143493462</v>
       </c>
-      <c r="O3" s="46">
+      <c r="O3" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C3</f>
         <v>18763.90059900449</v>
       </c>
-      <c r="P3" s="51">
+      <c r="P3" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C3</f>
         <v>210642.67003487775</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="41">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C3</f>
         <v>2084.8778443338324</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="18">
         <f>margin_vat!C4+margin_vat!C11+margin_vat!C18+margin_vat!C25</f>
         <v>985299.08360000001</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="45">
         <f>total_final[[#This Row],[sales_turnover]]/B3</f>
         <v>1.0424800086047796</v>
       </c>
@@ -7210,11 +7469,11 @@
         <f>margin_vat!H4+margin_vat!H11+margin_vat!H18+margin_vat!H25</f>
         <v>220901.15590527124</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="18">
         <f>margin_vat!J4+margin_vat!J11+margin_vat!J18+margin_vat!J25</f>
         <v>126826.12072000002</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="18">
         <f>margin_vat!K4+margin_vat!K11+margin_vat!K18+margin_vat!K25</f>
         <v>31809.523362872427</v>
       </c>
@@ -7230,11 +7489,11 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C4</f>
         <v>342785.1489893978</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C4</f>
         <v>165408.92689170901</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C4</f>
         <v>113017.60695840027</v>
       </c>
@@ -7250,28 +7509,28 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C4</f>
         <v>31723.161714749931</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C4</f>
         <v>18764.640154886034</v>
       </c>
-      <c r="P4" s="51">
+      <c r="P4" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C4</f>
         <v>210650.97225459514</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="41">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C4</f>
         <v>2084.9600172095593</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="43" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="18">
         <f>margin_vat!C5+margin_vat!C12+margin_vat!C19+margin_vat!C26</f>
         <v>1027195.6636240002</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="45">
         <f>total_final[[#This Row],[sales_turnover]]/B4</f>
         <v>1.0425216878015577</v>
       </c>
@@ -7279,11 +7538,11 @@
         <f>margin_vat!H5+margin_vat!H12+margin_vat!H19+margin_vat!H26</f>
         <v>230992.05905057298</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="18">
         <f>margin_vat!J5+margin_vat!J12+margin_vat!J19+margin_vat!J26</f>
         <v>132396.08888480003</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="18">
         <f>margin_vat!K5+margin_vat!K12+margin_vat!K19+margin_vat!K26</f>
         <v>33332.875679205506</v>
       </c>
@@ -7299,11 +7558,11 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C5</f>
         <v>342798.85381784482</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C5</f>
         <v>165415.54007484525</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C5</f>
         <v>113022.12549404694</v>
       </c>
@@ -7319,28 +7578,28 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C5</f>
         <v>31724.430032500506</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C5</f>
         <v>18765.390380428038</v>
       </c>
-      <c r="P5" s="51">
+      <c r="P5" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C5</f>
         <v>210659.39425142159</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="41">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C5</f>
         <v>2085.0433756031157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="43" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="18">
         <f>margin_vat!C6+margin_vat!C13+margin_vat!C20+margin_vat!C27</f>
         <v>1070917.1838497601</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="45">
         <f>total_final[[#This Row],[sales_turnover]]/B5</f>
         <v>1.0425639649524105</v>
       </c>
@@ -7348,11 +7607,11 @@
         <f>margin_vat!H6+margin_vat!H13+margin_vat!H20+margin_vat!H27</f>
         <v>241561.88973623229</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="18">
         <f>margin_vat!J6+margin_vat!J13+margin_vat!J20+margin_vat!J27</f>
         <v>138218.67117635201</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="18">
         <f>margin_vat!K6+margin_vat!K13+margin_vat!K20+margin_vat!K27</f>
         <v>34932.220371101001</v>
       </c>
@@ -7368,11 +7627,11 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C6</f>
         <v>342812.75526375679</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C6</f>
         <v>165422.24813456525</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C6</f>
         <v>113026.70885524231</v>
       </c>
@@ -7388,28 +7647,28 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C6</f>
         <v>31725.71654627753</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C6</f>
         <v>18766.15136914339</v>
       </c>
-      <c r="P6" s="51">
+      <c r="P6" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C6</f>
         <v>210667.93707512831</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="41">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C6</f>
         <v>2085.127929904821</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="43" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="18">
         <f>margin_vat!C7+margin_vat!C14+margin_vat!C21+margin_vat!C28</f>
         <v>1116545.5865053986</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="45">
         <f>total_final[[#This Row],[sales_turnover]]/B6</f>
         <v>1.0426068451825681</v>
       </c>
@@ -7417,11 +7676,11 @@
         <f>margin_vat!H7+margin_vat!H14+margin_vat!H21+margin_vat!H28</f>
         <v>252634.32254873618</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="18">
         <f>margin_vat!J7+margin_vat!J14+margin_vat!J21+margin_vat!J28</f>
         <v>144305.76108373574</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="18">
         <f>margin_vat!K7+margin_vat!K14+margin_vat!K21+margin_vat!K28</f>
         <v>36611.500630555958</v>
       </c>
@@ -7437,11 +7696,11 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C7</f>
         <v>342826.85501239647</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C7</f>
         <v>165429.05188408244</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C7</f>
         <v>113031.35759762416</v>
       </c>
@@ -7457,28 +7716,28 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C7</f>
         <v>31727.021412044189</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C7</f>
         <v>18766.923213286227</v>
       </c>
-      <c r="P7" s="51">
+      <c r="P7" s="18">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C7</f>
         <v>210676.601761356</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="41">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C7</f>
         <v>2085.2136903651362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="44" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="30">
         <f>margin_vat!C8+margin_vat!C15+margin_vat!C22+margin_vat!C29</f>
         <v>1164166.6281853616</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="46">
         <f>total_final[[#This Row],[sales_turnover]]/B7</f>
         <v>1.042650333542591</v>
       </c>
@@ -7486,11 +7745,11 @@
         <f>margin_vat!H8+margin_vat!H15+margin_vat!H22+margin_vat!H29</f>
         <v>264234.2501071234</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="30">
         <f>margin_vat!J8+margin_vat!J15+margin_vat!J22+margin_vat!J29</f>
         <v>150669.83517103453</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="30">
         <f>margin_vat!K8+margin_vat!K15+margin_vat!K22+margin_vat!K29</f>
         <v>38374.871587065754</v>
       </c>
@@ -7506,11 +7765,11 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$I$1,'charges'!$C:$C))*C8</f>
         <v>342841.15472447412</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="30">
         <f>(SUMIF('charges'!$A:$A,total_final!$J$1,'charges'!$C:$C))*C8</f>
         <v>165435.95212476261</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="30">
         <f>(SUMIF('charges'!$A:$A,total_final!$K$1,'charges'!$C:$C))*C8</f>
         <v>113036.07226873514</v>
       </c>
@@ -7526,15 +7785,15 @@
         <f>(SUMIF('charges'!$A:$A,total_final!$N$1,'charges'!$C:$C))*C8</f>
         <v>31728.344783491437</v>
       </c>
-      <c r="O8" s="47">
+      <c r="O8" s="30">
         <f>(SUMIF('charges'!$A:$A,total_final!$O$1,'charges'!$C:$C))*C8</f>
         <v>18767.706003766638</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="30">
         <f>(SUMIF('charges'!$A:$A,total_final!$P$1,'charges'!$C:$C))*C8</f>
         <v>210685.38933065705</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="42">
         <f>(SUMIF('charges'!$A:$A,total_final!$Q$1,'charges'!$C:$C))*C8</f>
         <v>2085.3006670851819</v>
       </c>
@@ -7551,8 +7810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15517C16-0392-4D50-8389-3547429C0B1C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7564,19 +7823,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="24" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7596,7 +7855,7 @@
         <f t="shared" ref="D2:D8" si="0">B2-C2</f>
         <v>-8916.293035502662</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="41">
         <f>D2</f>
         <v>-8916.293035502662</v>
       </c>
@@ -7617,7 +7876,7 @@
         <f t="shared" si="0"/>
         <v>-9294.6909016538411</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="41">
         <f t="shared" ref="E3:E8" si="1">E2+D3</f>
         <v>-18210.983937156503</v>
       </c>
@@ -7638,7 +7897,7 @@
         <f t="shared" si="0"/>
         <v>30817.634477922344</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="41">
         <f t="shared" si="1"/>
         <v>12606.650540765841</v>
       </c>
@@ -7659,7 +7918,7 @@
         <f t="shared" si="0"/>
         <v>72676.053558968473</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="41">
         <f t="shared" si="1"/>
         <v>85282.704099734314</v>
       </c>
@@ -7680,7 +7939,7 @@
         <f t="shared" si="0"/>
         <v>116358.86536262184</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="41">
         <f t="shared" si="1"/>
         <v>201641.56946235616</v>
       </c>
@@ -7701,7 +7960,7 @@
         <f t="shared" si="0"/>
         <v>161948.00742440566</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="41">
         <f t="shared" si="1"/>
         <v>363589.57688676182</v>
       </c>
@@ -7722,7 +7981,7 @@
         <f t="shared" si="0"/>
         <v>209529.23171453679</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="42">
         <f t="shared" si="1"/>
         <v>573118.8086012986</v>
       </c>
@@ -8845,7 +9104,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="A2:F11"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9163,8 +9422,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9187,37 +9446,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="25" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9239,10 +9498,10 @@
       <c r="E2" s="16">
         <v>1.06</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="16">
         <v>1.98</v>
       </c>
       <c r="H2" s="18">
@@ -9257,7 +9516,7 @@
         <f>C2*0.2</f>
         <v>22113</v>
       </c>
-      <c r="K2" s="46">
+      <c r="K2" s="41">
         <f>H2*0.2</f>
         <v>11168.181818181818</v>
       </c>
@@ -9279,8 +9538,8 @@
         <v>9766.5750000000007</v>
       </c>
       <c r="E3" s="16"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="22"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="18">
         <f t="shared" si="0"/>
         <v>59191.36363636364</v>
@@ -9293,7 +9552,7 @@
         <f t="shared" ref="J3:J15" si="1">C3*0.2</f>
         <v>23439.780000000002</v>
       </c>
-      <c r="K3" s="46">
+      <c r="K3" s="41">
         <f t="shared" ref="K3:K15" si="2">H3*0.2</f>
         <v>11838.272727272728</v>
       </c>
@@ -9315,8 +9574,8 @@
         <v>10352.569500000001</v>
       </c>
       <c r="E4" s="16"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="18">
         <f t="shared" si="0"/>
         <v>62742.845454545466</v>
@@ -9329,7 +9588,7 @@
         <f t="shared" si="1"/>
         <v>24846.166800000006</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="41">
         <f t="shared" si="2"/>
         <v>12548.569090909094</v>
       </c>
@@ -9351,8 +9610,8 @@
         <v>10973.723670000001</v>
       </c>
       <c r="E5" s="16"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
         <v>66507.416181818189</v>
@@ -9365,7 +9624,7 @@
         <f t="shared" si="1"/>
         <v>26336.936808000006</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="41">
         <f t="shared" si="2"/>
         <v>13301.483236363638</v>
       </c>
@@ -9387,8 +9646,8 @@
         <v>11632.147090200002</v>
       </c>
       <c r="E6" s="16"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
         <v>70497.861152727288</v>
@@ -9401,7 +9660,7 @@
         <f t="shared" si="1"/>
         <v>27917.153016480006</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="41">
         <f t="shared" si="2"/>
         <v>14099.572230545458</v>
       </c>
@@ -9423,8 +9682,8 @@
         <v>12330.075915612004</v>
       </c>
       <c r="E7" s="16"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
         <v>74727.732821890939</v>
@@ -9437,7 +9696,7 @@
         <f t="shared" si="1"/>
         <v>29592.18219746881</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="41">
         <f t="shared" si="2"/>
         <v>14945.546564378188</v>
       </c>
@@ -9459,8 +9718,8 @@
         <v>13069.880470548725</v>
       </c>
       <c r="E8" s="16"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="18">
         <f t="shared" si="0"/>
         <v>79211.396791204388</v>
@@ -9473,7 +9732,7 @@
         <f t="shared" si="1"/>
         <v>31367.71312931694</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="41">
         <f t="shared" si="2"/>
         <v>15842.279358240878</v>
       </c>
@@ -9497,10 +9756,10 @@
       <c r="E9" s="16">
         <v>1.04</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="16">
         <v>1.7</v>
       </c>
       <c r="H9" s="18">
@@ -9515,47 +9774,47 @@
         <f t="shared" si="1"/>
         <v>18400</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="41">
         <f t="shared" si="2"/>
         <v>6370.4201680672268</v>
       </c>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="18">
         <f>C9*$E$9</f>
         <v>95680</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>7973.333333333333</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="32" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="16">
         <v>3.5</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="18">
         <f t="shared" ref="H10:H15" si="4">((C10/5)/$G$9)+((C10/5*4)/$G$10)</f>
         <v>33126.184873949576</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>2760.5154061624648</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="18">
         <f t="shared" si="1"/>
         <v>19136</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="41">
         <f t="shared" si="2"/>
         <v>6625.2369747899156</v>
       </c>
@@ -9578,8 +9837,8 @@
         <v>8292.2666666666664</v>
       </c>
       <c r="E11" s="16"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="18">
         <f t="shared" si="4"/>
         <v>34451.232268907559</v>
@@ -9592,7 +9851,7 @@
         <f t="shared" si="1"/>
         <v>19901.440000000002</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="41">
         <f t="shared" si="2"/>
         <v>6890.2464537815122</v>
       </c>
@@ -9615,8 +9874,8 @@
         <v>8623.9573333333337</v>
       </c>
       <c r="E12" s="16"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="18">
         <f t="shared" si="4"/>
         <v>35829.281559663861</v>
@@ -9629,7 +9888,7 @@
         <f t="shared" si="1"/>
         <v>20697.497600000002</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="41">
         <f t="shared" si="2"/>
         <v>7165.8563119327728</v>
       </c>
@@ -9652,8 +9911,8 @@
         <v>8968.9156266666669</v>
       </c>
       <c r="E13" s="16"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="18">
         <f t="shared" si="4"/>
         <v>37262.452822050422</v>
@@ -9666,7 +9925,7 @@
         <f t="shared" si="1"/>
         <v>21525.397504</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="41">
         <f t="shared" si="2"/>
         <v>7452.4905644100845</v>
       </c>
@@ -9689,8 +9948,8 @@
         <v>9327.6722517333328</v>
       </c>
       <c r="E14" s="16"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="18">
         <f t="shared" si="4"/>
         <v>38752.950934932436</v>
@@ -9703,7 +9962,7 @@
         <f t="shared" si="1"/>
         <v>22386.413404160001</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="41">
         <f t="shared" si="2"/>
         <v>7750.5901869864874</v>
       </c>
@@ -9726,8 +9985,8 @@
         <v>9700.7791418026663</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="18">
         <f t="shared" si="4"/>
         <v>40303.068972329733</v>
@@ -9740,7 +9999,7 @@
         <f t="shared" si="1"/>
         <v>23281.869940326404</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="41">
         <f t="shared" si="2"/>
         <v>8060.6137944659467</v>
       </c>
@@ -9765,10 +10024,10 @@
       <c r="E16" s="16">
         <v>1.04</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="16">
         <v>4</v>
       </c>
       <c r="H16" s="18">
@@ -9783,7 +10042,7 @@
         <f>C16*0.1</f>
         <v>64935</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="41">
         <f>H16*0.1</f>
         <v>11437.414772727274</v>
       </c>
@@ -9809,10 +10068,10 @@
         <v>56277</v>
       </c>
       <c r="E17" s="16"/>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="16">
         <v>6.6</v>
       </c>
       <c r="H17" s="18">
@@ -9827,7 +10086,7 @@
         <f t="shared" ref="J17:J22" si="7">C17*0.1</f>
         <v>67532.400000000009</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="41">
         <f t="shared" ref="K17:K22" si="8">H17*0.1</f>
         <v>11894.911363636365</v>
       </c>
@@ -9853,8 +10112,8 @@
         <v>58528.080000000009</v>
       </c>
       <c r="E18" s="16"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="18">
         <f t="shared" si="6"/>
         <v>123707.07818181821</v>
@@ -9867,7 +10126,7 @@
         <f t="shared" si="7"/>
         <v>70233.696000000011</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="41">
         <f t="shared" si="8"/>
         <v>12370.707818181821</v>
       </c>
@@ -9889,8 +10148,8 @@
         <v>60869.203200000011</v>
       </c>
       <c r="E19" s="16"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="18">
         <f t="shared" si="6"/>
         <v>128655.36130909092</v>
@@ -9903,43 +10162,43 @@
         <f t="shared" si="7"/>
         <v>73043.043840000013</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="41">
         <f t="shared" si="8"/>
         <v>12865.536130909093</v>
       </c>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="18">
         <f t="shared" si="9"/>
         <v>759647.65593600017</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="19">
         <f>margin_vat[[#This Row],[sales_turnover]]/12</f>
         <v>63303.971328000014</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="30">
+      <c r="E20" s="16"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="18">
         <f t="shared" si="6"/>
         <v>133801.57576145459</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="18">
         <f>margin_vat[[#This Row],[purchase]]/12</f>
         <v>11150.131313454549</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="18">
         <f t="shared" si="7"/>
         <v>75964.765593600023</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="41">
         <f t="shared" si="8"/>
         <v>13380.157576145459</v>
       </c>
@@ -9961,8 +10220,8 @@
         <v>65836.130181120025</v>
       </c>
       <c r="E21" s="16"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="18">
         <f t="shared" si="6"/>
         <v>139153.63879191279</v>
@@ -9975,7 +10234,7 @@
         <f t="shared" si="7"/>
         <v>79003.35621734403</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="41">
         <f t="shared" si="8"/>
         <v>13915.36387919128</v>
       </c>
@@ -9997,8 +10256,8 @@
         <v>68469.575388364829</v>
       </c>
       <c r="E22" s="16"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="18">
         <f t="shared" si="6"/>
         <v>144719.7843435893</v>
@@ -10011,7 +10270,7 @@
         <f t="shared" si="7"/>
         <v>82163.490466037794</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="41">
         <f t="shared" si="8"/>
         <v>14471.978434358931</v>
       </c>
@@ -10035,10 +10294,10 @@
       <c r="E23" s="16">
         <v>1.04</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="16">
         <v>1</v>
       </c>
       <c r="H23" s="18">
@@ -10052,7 +10311,7 @@
         <f>C23*0.2</f>
         <v>10951.2</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10072,8 +10331,8 @@
         <v>4745.5200000000004</v>
       </c>
       <c r="E24" s="16"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="18">
         <v>0</v>
       </c>
@@ -10085,7 +10344,7 @@
         <f t="shared" ref="J24:J29" si="10">C24*0.2</f>
         <v>11389.248000000001</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10105,8 +10364,8 @@
         <v>4935.3408000000009</v>
       </c>
       <c r="E25" s="16"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="18">
         <v>0</v>
       </c>
@@ -10118,7 +10377,7 @@
         <f t="shared" si="10"/>
         <v>11844.817920000001</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10138,8 +10397,8 @@
         <v>5132.7544320000006</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="18">
         <v>0</v>
       </c>
@@ -10151,7 +10410,7 @@
         <f t="shared" si="10"/>
         <v>12318.610636800004</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10171,8 +10430,8 @@
         <v>5338.0646092800007</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="18">
         <v>0</v>
       </c>
@@ -10184,7 +10443,7 @@
         <f t="shared" si="10"/>
         <v>12811.355062272003</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10204,8 +10463,8 @@
         <v>5551.5871936512012</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="16"/>
       <c r="H28" s="18">
         <v>0</v>
       </c>
@@ -10217,7 +10476,7 @@
         <f t="shared" si="10"/>
         <v>13323.809264762884</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10237,8 +10496,8 @@
         <v>5773.6506813972492</v>
       </c>
       <c r="E29" s="28"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="27"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="30">
         <v>0</v>
       </c>
@@ -10250,7 +10509,7 @@
         <f t="shared" si="10"/>
         <v>13856.761635353399</v>
       </c>
-      <c r="K29" s="47">
+      <c r="K29" s="42">
         <v>0</v>
       </c>
     </row>
@@ -10268,7 +10527,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C35"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10283,19 +10542,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="25" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -10316,7 +10575,7 @@
         <f>C2/12</f>
         <v>5416.666666666667</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>122</v>
       </c>
       <c r="H2" s="11">
@@ -10338,7 +10597,7 @@
         <f t="shared" ref="D3" si="0">C3/12</f>
         <v>5416.666666666667</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="40" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10356,7 +10615,7 @@
         <f t="shared" ref="D4:D26" si="1">C4/12</f>
         <v>2503.4166666666665</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="40" t="s">
         <v>122</v>
       </c>
       <c r="G4" t="s">
@@ -10375,7 +10634,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="40" t="s">
         <v>122</v>
       </c>
       <c r="G5" t="s">
@@ -10404,7 +10663,7 @@
         <f t="shared" si="1"/>
         <v>2503.4166666666665</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="40" t="s">
         <v>122</v>
       </c>
       <c r="G6" t="s">
@@ -10433,7 +10692,7 @@
         <f t="shared" si="1"/>
         <v>2503.4166666666665</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="40" t="s">
         <v>122</v>
       </c>
       <c r="G7" t="s">
@@ -10462,7 +10721,7 @@
         <f t="shared" si="1"/>
         <v>2503.4166666666665</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="40" t="s">
         <v>122</v>
       </c>
       <c r="G8" t="s">
@@ -10491,7 +10750,7 @@
         <f t="shared" si="1"/>
         <v>4051</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="40" t="s">
         <v>122</v>
       </c>
       <c r="G9" t="s">
@@ -10507,20 +10766,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="18">
         <v>30041</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="19">
         <f t="shared" si="1"/>
         <v>2503.4166666666665</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="40" t="s">
         <v>122</v>
       </c>
       <c r="G10" t="s">
@@ -10549,7 +10808,7 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="40"/>
       <c r="G11" t="s">
         <v>192</v>
       </c>
@@ -10577,7 +10836,7 @@
         <f t="shared" si="1"/>
         <v>2586.39</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="40" t="s">
         <v>130</v>
       </c>
       <c r="G12" t="s">
@@ -10606,7 +10865,7 @@
         <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="40" t="s">
         <v>131</v>
       </c>
       <c r="G13" t="s">
@@ -10635,7 +10894,7 @@
         <f t="shared" si="1"/>
         <v>209.66666666666666</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="40" t="s">
         <v>131</v>
       </c>
       <c r="H14" s="1"/>
@@ -10655,7 +10914,7 @@
         <f t="shared" si="1"/>
         <v>1826</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="40" t="s">
         <v>133</v>
       </c>
       <c r="H15" s="2"/>
@@ -10675,7 +10934,7 @@
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="40" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10694,7 +10953,7 @@
         <f t="shared" si="1"/>
         <v>988.86</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="40" t="s">
         <v>134</v>
       </c>
       <c r="H17" s="2"/>
@@ -10714,7 +10973,7 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="40" t="s">
         <v>190</v>
       </c>
       <c r="H18" s="2"/>
@@ -10734,25 +10993,25 @@
         <f t="shared" si="1"/>
         <v>1284.4505833333335</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="40" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="18">
         <v>22152</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="19">
         <f t="shared" si="1"/>
         <v>1846</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="40" t="s">
         <v>138</v>
       </c>
       <c r="H20" s="1"/>
@@ -10772,7 +11031,7 @@
         <f t="shared" si="1"/>
         <v>148.20624000000001</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="40" t="s">
         <v>158</v>
       </c>
     </row>
@@ -10790,7 +11049,7 @@
         <f t="shared" si="1"/>
         <v>166.66666666666666</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="40" t="s">
         <v>143</v>
       </c>
       <c r="H22" s="2"/>
@@ -10809,7 +11068,7 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="E23" s="42"/>
+      <c r="E23" s="40"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -10826,7 +11085,7 @@
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="E24" s="42"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
@@ -10842,7 +11101,7 @@
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
@@ -10858,7 +11117,7 @@
         <f t="shared" si="1"/>
         <v>166.66666666666666</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
@@ -10875,7 +11134,7 @@
         <f t="shared" ref="D27:D32" si="4">C27/12</f>
         <v>513.78023333333329</v>
       </c>
-      <c r="E27" s="42"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
@@ -10892,37 +11151,37 @@
         <f t="shared" si="4"/>
         <v>98.222691666666663</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="18">
         <v>0</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="40" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="18">
         <v>7349</v>
       </c>
-      <c r="D30" s="44">
+      <c r="D30" s="19">
         <f t="shared" si="4"/>
         <v>612.41666666666663</v>
       </c>
@@ -10945,7 +11204,7 @@
         <f t="shared" si="4"/>
         <v>315.00292966342624</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="40" t="s">
         <v>141</v>
       </c>
     </row>
@@ -10964,7 +11223,7 @@
         <f t="shared" si="4"/>
         <v>7285.2652700853068</v>
       </c>
-      <c r="E32" s="42"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
@@ -10981,7 +11240,7 @@
         <f>margin_vat!H2/12</f>
         <v>4653.409090909091</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="40" t="s">
         <v>51</v>
       </c>
     </row>
@@ -11000,7 +11259,7 @@
         <f>margin_vat!H9/12</f>
         <v>2654.3417366946778</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="40" t="s">
         <v>52</v>
       </c>
     </row>
